--- a/analytics/time-spent-at-each-level.xlsx
+++ b/analytics/time-spent-at-each-level.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30460" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>level</t>
   </si>
   <si>
     <t>time_spent</t>
   </si>
+  <si>
+    <t>Level-Stage</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,14 +87,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2737,472 +2775,472 @@
                   <c:v>7.6166666666666</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.4166666666667</c:v>
+                  <c:v>5.5666666666667</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.9333333333333</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.95</c:v>
+                  <c:v>4.0333333333333</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26.333333333333</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.9833333333333</c:v>
+                  <c:v>4.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.0166666666666</c:v>
+                  <c:v>4.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>14.566666666667</c:v>
+                  <c:v>8.0000000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.4333333333333</c:v>
+                  <c:v>2.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.2333333333333</c:v>
+                  <c:v>2.01666666666659</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.25</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.2</c:v>
+                  <c:v>1.9666666666667</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.2833333333333</c:v>
+                  <c:v>2.0166666666666</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.35</c:v>
+                  <c:v>2.05</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.8333333333333</c:v>
+                  <c:v>2.0166666666666</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11.2</c:v>
+                  <c:v>5.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7.95</c:v>
+                  <c:v>5.65</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>14.183333333334</c:v>
+                  <c:v>7.1666666666674</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.8666666666666</c:v>
+                  <c:v>4.04999999999989</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12.916666666667</c:v>
+                  <c:v>7.966666666667</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>18.483333333334</c:v>
+                  <c:v>10.4166666666673</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>70.849999999997</c:v>
+                  <c:v>63.2333333333303</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>16.333333333334</c:v>
+                  <c:v>9.2500000000007</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>12.433333333334</c:v>
+                  <c:v>5.96666666666739</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>10.566666666667</c:v>
+                  <c:v>5.6333333333337</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>35.399999999999</c:v>
+                  <c:v>12.8833333333319</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>31.549999999999</c:v>
+                  <c:v>12.783333333332</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>11.516666666667</c:v>
+                  <c:v>9.1500000000003</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>24.916666666667</c:v>
+                  <c:v>11.9666666666669</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6.8833333333333</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>10.716666666667</c:v>
+                  <c:v>5.216666666667</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>14.366666666667</c:v>
+                  <c:v>7.30000000000039</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>14.1</c:v>
+                  <c:v>9.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>11.516666666667</c:v>
+                  <c:v>9.1500000000003</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.9333333333334</c:v>
+                  <c:v>4.03333333333339</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.5666666666667</c:v>
+                  <c:v>5.65</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>35.249999999999</c:v>
+                  <c:v>19.6666666666649</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9.533333333333401</c:v>
+                  <c:v>7.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>13.85</c:v>
+                  <c:v>8.39999999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>11.266666666667</c:v>
+                  <c:v>2.05000000000029</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>18.066666666667</c:v>
+                  <c:v>13.7000000000003</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>14.283333333334</c:v>
+                  <c:v>10.3666666666673</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44.466666666665</c:v>
+                  <c:v>20.783333333332</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>9.6166666666667</c:v>
+                  <c:v>4.09999999999999</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9.4666666666667</c:v>
+                  <c:v>5.5833333333334</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>19.083333333334</c:v>
+                  <c:v>12.0000000000007</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>15.15</c:v>
+                  <c:v>5.95</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.6166666666667</c:v>
+                  <c:v>2.3833333333334</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.2666666666666</c:v>
+                  <c:v>3.9999999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>14.516666666667</c:v>
+                  <c:v>9.63333333333369</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9.5666666666667</c:v>
+                  <c:v>4.0333333333334</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>7.3833333333333</c:v>
+                  <c:v>4.0166666666666</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>16.983333333334</c:v>
+                  <c:v>5.60000000000099</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>12.05</c:v>
+                  <c:v>5.5666666666667</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>14.3</c:v>
+                  <c:v>8.35</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>21.75</c:v>
+                  <c:v>15.2333333333334</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>9.9833333333334</c:v>
+                  <c:v>5.6333333333334</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>21.55</c:v>
+                  <c:v>12.35</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>13.466666666667</c:v>
+                  <c:v>5.2833333333337</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>24.666666666667</c:v>
+                  <c:v>9.14999999999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>14.25</c:v>
+                  <c:v>3.966666666667</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4.7833333333333</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>19.183333333334</c:v>
+                  <c:v>8.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6.6333333333333</c:v>
+                  <c:v>4.3666666666666</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>46.933333333332</c:v>
+                  <c:v>32.866666666665</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>21.333333333333</c:v>
+                  <c:v>14.8499999999997</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>14.7</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>30.883333333333</c:v>
+                  <c:v>13.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6.3666666666666</c:v>
+                  <c:v>4.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>13.583333333334</c:v>
+                  <c:v>4.3500000000006</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>8.0</c:v>
+                  <c:v>5.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>8.8</c:v>
+                  <c:v>4.4166666666667</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>7.2333333333333</c:v>
+                  <c:v>4.38333333333329</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>11.283333333333</c:v>
+                  <c:v>6.34999999999969</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>7.8666666666666</c:v>
+                  <c:v>4.04999999999989</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>15.8</c:v>
+                  <c:v>6.0666666666666</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>9.033333333333401</c:v>
+                  <c:v>1.9666666666668</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>9.9500000000001</c:v>
+                  <c:v>6.0000000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>7.9666666666666</c:v>
+                  <c:v>2.4499999999999</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>21.5</c:v>
+                  <c:v>11.216666666667</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>14.4</c:v>
+                  <c:v>8.8666666666667</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>14.733333333334</c:v>
+                  <c:v>5.6166666666673</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>11.6</c:v>
+                  <c:v>3.9833333333334</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>15.033333333334</c:v>
+                  <c:v>5.61666666666729</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>18.683333333334</c:v>
+                  <c:v>10.7500000000007</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>16.783333333334</c:v>
+                  <c:v>8.833333333334</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>41.299999999999</c:v>
+                  <c:v>14.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>13.666666666667</c:v>
+                  <c:v>5.6833333333337</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>15.216666666667</c:v>
+                  <c:v>7.2000000000004</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>27.616666666666</c:v>
+                  <c:v>13.0499999999989</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>10.8</c:v>
+                  <c:v>5.3666666666667</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>6.4166666666666</c:v>
+                  <c:v>2.1833333333333</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>11.933333333334</c:v>
+                  <c:v>5.683333333334</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>6.5333333333333</c:v>
+                  <c:v>2.1833333333333</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>8.0166666666666</c:v>
+                  <c:v>2.1833333333333</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>14.183333333334</c:v>
+                  <c:v>6.23333333333399</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>27.866666666666</c:v>
+                  <c:v>13.683333333332</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>13.5</c:v>
+                  <c:v>5.6333333333334</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>28.766666666666</c:v>
+                  <c:v>15.849999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>27.683333333333</c:v>
+                  <c:v>9.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>89.299999999996</c:v>
+                  <c:v>18.449999999999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>24.233333333333</c:v>
+                  <c:v>7.899999999999</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>19.916666666667</c:v>
+                  <c:v>7.48333333333299</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>13.066666666667</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>48.149999999999</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>37.433333333332</c:v>
+                  <c:v>5.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>17.45</c:v>
+                  <c:v>5.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>25.266666666667</c:v>
+                  <c:v>18.3833333333337</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>17.683333333334</c:v>
+                  <c:v>6.966666666667</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>24.216666666667</c:v>
+                  <c:v>9.85</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>26.083333333333</c:v>
+                  <c:v>11.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>19.1</c:v>
+                  <c:v>7.583333333333</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>15.883333333334</c:v>
+                  <c:v>6.9500000000006</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>15.216666666667</c:v>
+                  <c:v>5.6500000000003</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>38.633333333332</c:v>
+                  <c:v>3.38333333333299</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>28.3</c:v>
+                  <c:v>18.7666666666666</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>19.166666666667</c:v>
+                  <c:v>5.31666666666699</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>16.633333333334</c:v>
+                  <c:v>5.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>29.5</c:v>
+                  <c:v>15.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>20.033333333333</c:v>
+                  <c:v>10.4166666666663</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>14.416666666667</c:v>
+                  <c:v>4.95000000000029</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>24.116666666667</c:v>
+                  <c:v>5.033333333333</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>17.583333333334</c:v>
+                  <c:v>2.43333333333399</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>7.0666666666666</c:v>
+                  <c:v>2.4499999999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>28.733333333333</c:v>
+                  <c:v>14.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>18.4</c:v>
+                  <c:v>8.83333333333329</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>13.066666666667</c:v>
+                  <c:v>5.6833333333337</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>23.533333333333</c:v>
+                  <c:v>6.549999999999</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>20.866666666667</c:v>
+                  <c:v>8.816666666667</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>21.8</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>28.7</c:v>
+                  <c:v>6.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>18.833333333334</c:v>
+                  <c:v>8.8500000000006</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>38.966666666666</c:v>
+                  <c:v>17.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>25.2</c:v>
+                  <c:v>11.7333333333329</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>37.033333333333</c:v>
+                  <c:v>12.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>21.55</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>10.083333333333</c:v>
+                  <c:v>5.2999999999997</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>24.15</c:v>
+                  <c:v>4.96666666666599</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10.683333333333</c:v>
+                  <c:v>4.0499999999997</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>59.983333333331</c:v>
+                  <c:v>13.0499999999989</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>34.933333333333</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>22.0</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>40.716666666666</c:v>
+                  <c:v>9.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>16.166666666667</c:v>
+                  <c:v>9.80000000000039</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>20.866666666667</c:v>
+                  <c:v>7.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>18.15</c:v>
+                  <c:v>10.1499999999999</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>18.866666666667</c:v>
+                  <c:v>10.066666666667</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>11.016666666667</c:v>
+                  <c:v>3.7833333333337</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>18.266666666667</c:v>
+                  <c:v>6.983333333334</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>13.533333333334</c:v>
+                  <c:v>5.6666666666674</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>19.483333333334</c:v>
+                  <c:v>3.68333333333399</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>18.416666666667</c:v>
+                  <c:v>8.46666666666689</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>13.3</c:v>
+                  <c:v>5.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>33.816666666666</c:v>
+                  <c:v>12.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>24.866666666667</c:v>
+                  <c:v>10.466666666667</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>25.466666666667</c:v>
+                  <c:v>10.7333333333329</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>16.983333333334</c:v>
+                  <c:v>5.38333333333399</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>10.566666666667</c:v>
@@ -3436,319 +3474,319 @@
                   <c:v>8.85</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>29.133333333333</c:v>
+                  <c:v>18.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>29.083333333333</c:v>
+                  <c:v>16.966666666666</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>40.299999999999</c:v>
+                  <c:v>26.566666666665</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>25.916666666666</c:v>
+                  <c:v>16.9833333333326</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>13.133333333334</c:v>
+                  <c:v>7.3666666666673</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>8.1666666666667</c:v>
+                  <c:v>5.76666666666669</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>27.45</c:v>
+                  <c:v>12.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>35.483333333333</c:v>
+                  <c:v>13.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>32.266666666666</c:v>
+                  <c:v>24.9833333333327</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>75.549999999997</c:v>
+                  <c:v>68.1833333333304</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>21.016666666667</c:v>
+                  <c:v>13.766666666667</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>61.016666666664</c:v>
+                  <c:v>56.966666666664</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>22.633333333333</c:v>
+                  <c:v>12.183333333333</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>62.666666666664</c:v>
+                  <c:v>48.966666666664</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>21.15</c:v>
+                  <c:v>15.3833333333332</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>17.833333333334</c:v>
+                  <c:v>12.183333333334</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>32.283333333333</c:v>
+                  <c:v>20.1666666666659</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>29.05</c:v>
+                  <c:v>21.7666666666667</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>14.666666666667</c:v>
+                  <c:v>8.9833333333337</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>44.983333333332</c:v>
+                  <c:v>28.1833333333319</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>24.3</c:v>
+                  <c:v>18.5666666666667</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>12.983333333334</c:v>
+                  <c:v>8.9666666666673</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>24.3</c:v>
+                  <c:v>12.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>28.983333333333</c:v>
+                  <c:v>24.983333333333</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>32.183333333333</c:v>
+                  <c:v>10.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>48.283333333332</c:v>
+                  <c:v>34.566666666665</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>52.949999999998</c:v>
+                  <c:v>47.3666666666647</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>13.083333333334</c:v>
+                  <c:v>8.983333333334</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>14.7</c:v>
+                  <c:v>7.36666666666669</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>21.1</c:v>
+                  <c:v>13.7833333333334</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>17.9</c:v>
+                  <c:v>10.5833333333334</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>17.883333333334</c:v>
+                  <c:v>12.1666666666673</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>28.966666666666</c:v>
+                  <c:v>21.766666666666</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>32.233333333333</c:v>
+                  <c:v>23.383333333333</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>27.45</c:v>
+                  <c:v>20.1833333333334</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>14.616666666667</c:v>
+                  <c:v>12.1833333333337</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>36.949999999999</c:v>
+                  <c:v>20.166666666665</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>9.8333333333334</c:v>
+                  <c:v>7.38333333333339</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>29.016666666666</c:v>
+                  <c:v>20.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>33.899999999999</c:v>
+                  <c:v>20.1833333333319</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>24.25</c:v>
+                  <c:v>16.9833333333334</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>29.133333333333</c:v>
+                  <c:v>18.566666666666</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>22.666666666667</c:v>
+                  <c:v>13.7666666666669</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>25.9</c:v>
+                  <c:v>8.96666666666599</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>19.45</c:v>
+                  <c:v>13.7666666666667</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>16.233333333334</c:v>
+                  <c:v>12.1666666666672</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>16.283333333334</c:v>
+                  <c:v>12.183333333334</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>24.266666666667</c:v>
+                  <c:v>15.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>22.7</c:v>
+                  <c:v>8.98333333333299</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>27.4</c:v>
+                  <c:v>24.9833333333333</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>40.299999999999</c:v>
+                  <c:v>31.3833333333323</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>22.566666666667</c:v>
+                  <c:v>8.966666666667</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>33.899999999999</c:v>
+                  <c:v>26.5833333333323</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>21.016666666667</c:v>
+                  <c:v>12.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>39.766666666666</c:v>
+                  <c:v>10.6333333333329</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>41.283333333332</c:v>
+                  <c:v>12.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>52.516666666665</c:v>
+                  <c:v>12.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>42.933333333332</c:v>
+                  <c:v>17.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>26.966666666666</c:v>
+                  <c:v>13.833333333332</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>18.8</c:v>
+                  <c:v>13.1666666666667</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>12.4</c:v>
+                  <c:v>4.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>39.649999999999</c:v>
+                  <c:v>12.1999999999989</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>54.083333333332</c:v>
+                  <c:v>18.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>52.466666666665</c:v>
+                  <c:v>20.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>79.78333333333001</c:v>
+                  <c:v>4.233333333333</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>26.683333333333</c:v>
+                  <c:v>5.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>31.483333333333</c:v>
+                  <c:v>8.85</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>79.666666666663</c:v>
+                  <c:v>16.999999999999</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>33.349999999999</c:v>
+                  <c:v>12.199999999999</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>25.233333333333</c:v>
+                  <c:v>7.399999999999</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>47.699999999999</c:v>
+                  <c:v>15.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>55.683333333331</c:v>
+                  <c:v>26.633333333331</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>29.916666666666</c:v>
+                  <c:v>15.249999999999</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>76.399999999997</c:v>
+                  <c:v>31.4166666666649</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>31.549999999999</c:v>
+                  <c:v>7.24999999999899</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>21.983333333333</c:v>
+                  <c:v>8.999999999999</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>47.583333333332</c:v>
+                  <c:v>23.283333333332</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>41.066666666666</c:v>
+                  <c:v>12.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>50.799999999998</c:v>
+                  <c:v>18.6166666666649</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>68.349999999997</c:v>
+                  <c:v>15.3999999999989</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>18.883333333334</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>23.7</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>31.716666666666</c:v>
+                  <c:v>10.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>31.566666666666</c:v>
+                  <c:v>13.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>39.716666666666</c:v>
+                  <c:v>21.833333333332</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>84.399999999996</c:v>
+                  <c:v>55.43333333333</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>44.316666666665</c:v>
+                  <c:v>12.083333333332</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>39.666666666666</c:v>
+                  <c:v>12.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>23.616666666667</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>42.766666666666</c:v>
+                  <c:v>5.81666666666699</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>18.716666666667</c:v>
+                  <c:v>8.8833333333336</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>42.849999999999</c:v>
+                  <c:v>13.8333333333329</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>47.699999999999</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>41.249999999999</c:v>
+                  <c:v>16.9999999999989</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>39.749999999999</c:v>
+                  <c:v>10.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>38.083333333332</c:v>
+                  <c:v>15.416666666665</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>36.516666666666</c:v>
+                  <c:v>10.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>36.466666666666</c:v>
+                  <c:v>17.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>26.833333333333</c:v>
+                  <c:v>10.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>20.333333333333</c:v>
+                  <c:v>4.049999999999</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>29.933333333333</c:v>
+                  <c:v>5.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>37.999999999999</c:v>
+                  <c:v>10.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>47.699999999999</c:v>
+                  <c:v>7.39999999999999</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>46.116666666665</c:v>
+                  <c:v>12.216666666666</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>36.416666666666</c:v>
+                  <c:v>15.399999999999</c:v>
                 </c:pt>
                 <c:pt idx="430">
                   <c:v>12.216666666667</c:v>
@@ -3925,268 +3963,268 @@
                   <c:v>9.6833333333334</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>21.5</c:v>
+                  <c:v>9.283333333333</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>11.233333333333</c:v>
+                  <c:v>5.5666666666663</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>15.833333333334</c:v>
+                  <c:v>9.2666666666674</c:v>
                 </c:pt>
                 <c:pt idx="491">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2.2666666666667</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>20.7833333333329</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>5.9500000000004</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>7.8666666666667</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>9.316666666666</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2.98333333333329</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>12.566666666666</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>4.71666666666699</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>6.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>2.9333333333333</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>10.733333333334</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>15.5666666666663</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>2.94999999999969</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>2.9833333333333</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>2.1833333333333</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>7.09999999999999</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>5.5666666666667</c:v>
+                </c:pt>
+                <c:pt idx="511">
                   <c:v>10.75</c:v>
                 </c:pt>
-                <c:pt idx="492">
-                  <c:v>4.4833333333333</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>27.383333333333</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>12.466666666667</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>12.65</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>40.683333333332</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>23.116666666667</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>4.4833333333333</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>29.3</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>19.016666666667</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>14.55</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>4.4333333333333</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>17.333333333334</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>20.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>11.183333333333</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>8.5833333333333</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>9.7166666666667</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>21.866666666667</c:v>
-                </c:pt>
                 <c:pt idx="512">
-                  <c:v>54.066666666665</c:v>
+                  <c:v>34.716666666665</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>17.533333333334</c:v>
+                  <c:v>7.86666666666729</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>20.516666666667</c:v>
+                  <c:v>7.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>22.616666666667</c:v>
+                  <c:v>15.5333333333337</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>10.766666666667</c:v>
+                  <c:v>9.266666666667</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>10.766666666667</c:v>
+                  <c:v>9.2500000000003</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>6.1833333333333</c:v>
+                  <c:v>4.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>6.2</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>4.4833333333333</c:v>
+                  <c:v>2.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>3.75</c:v>
+                  <c:v>2.2333333333333</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>7.7166666666666</c:v>
+                  <c:v>2.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>5.6333333333333</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>33.433333333333</c:v>
+                  <c:v>23.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>30.783333333333</c:v>
+                  <c:v>14.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>9.5166666666667</c:v>
+                  <c:v>2.96666666666669</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>10.75</c:v>
+                  <c:v>5.9666666666667</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>21.516666666667</c:v>
+                  <c:v>17.366666666667</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>28.35</c:v>
+                  <c:v>12.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>19.7</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>16.466666666667</c:v>
+                  <c:v>2.13333333333299</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>11.816666666667</c:v>
+                  <c:v>4.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>54.883333333331</c:v>
+                  <c:v>36.549999999997</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>14.2</c:v>
+                  <c:v>5.9333333333333</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>17.533333333334</c:v>
+                  <c:v>7.8500000000006</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>46.433333333332</c:v>
+                  <c:v>24.933333333332</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>20.25</c:v>
+                  <c:v>9.016666666667</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>28.866666666666</c:v>
+                  <c:v>13.033333333332</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>26.85</c:v>
+                  <c:v>16.1</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>12.766666666667</c:v>
+                  <c:v>8.96666666666699</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>45.999999999999</c:v>
+                  <c:v>18.616666666666</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>36.599999999999</c:v>
+                  <c:v>24.1333333333319</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>14.133333333334</c:v>
+                  <c:v>-65.649999999996</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>25.383333333333</c:v>
+                  <c:v>12.7333333333329</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>58.183333333331</c:v>
+                  <c:v>17.4999999999989</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>34.483333333333</c:v>
+                  <c:v>11.366666666666</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>8.5166666666667</c:v>
+                  <c:v>4.0333333333334</c:v>
                 </c:pt>
                 <c:pt idx="548">
-                  <c:v>56.466666666665</c:v>
+                  <c:v>27.1666666666649</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>25.033333333333</c:v>
+                  <c:v>10.483333333333</c:v>
                 </c:pt>
                 <c:pt idx="550">
-                  <c:v>16.4</c:v>
+                  <c:v>11.9666666666666</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>42.216666666666</c:v>
+                  <c:v>24.883333333332</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>15.216666666667</c:v>
+                  <c:v>4.033333333334</c:v>
                 </c:pt>
                 <c:pt idx="553">
-                  <c:v>16.85</c:v>
+                  <c:v>8.2666666666667</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>9.283333333333401</c:v>
+                  <c:v>4.0333333333334</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>63.283333333331</c:v>
+                  <c:v>40.883333333331</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>18.683333333334</c:v>
+                  <c:v>8.9666666666673</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>37.949999999999</c:v>
+                  <c:v>16.083333333332</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>83.699999999997</c:v>
+                  <c:v>29.633333333332</c:v>
                 </c:pt>
                 <c:pt idx="559">
-                  <c:v>47.266666666665</c:v>
+                  <c:v>29.733333333331</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>45.483333333332</c:v>
+                  <c:v>24.966666666665</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>37.933333333332</c:v>
+                  <c:v>15.316666666665</c:v>
                 </c:pt>
                 <c:pt idx="562">
-                  <c:v>17.9</c:v>
+                  <c:v>7.13333333333299</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>10.3</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
                 <c:pt idx="564">
-                  <c:v>23.85</c:v>
+                  <c:v>16.1333333333334</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>40.499999999999</c:v>
+                  <c:v>9.71666666666599</c:v>
                 </c:pt>
                 <c:pt idx="566">
-                  <c:v>23.35</c:v>
+                  <c:v>13.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>14.116666666667</c:v>
+                  <c:v>3.36666666666699</c:v>
                 </c:pt>
                 <c:pt idx="568">
-                  <c:v>35.983333333333</c:v>
+                  <c:v>14.466666666666</c:v>
                 </c:pt>
                 <c:pt idx="569">
-                  <c:v>47.766666666665</c:v>
+                  <c:v>19.416666666665</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>42.899999999999</c:v>
+                  <c:v>23.1999999999989</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>18.3</c:v>
+                  <c:v>1.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="572">
-                  <c:v>20.833333333333</c:v>
+                  <c:v>9.016666666666</c:v>
                 </c:pt>
                 <c:pt idx="573">
-                  <c:v>70.149999999997</c:v>
+                  <c:v>15.2666666666659</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>25.616666666666</c:v>
+                  <c:v>11.416666666666</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>27.983333333333</c:v>
+                  <c:v>10.449999999999</c:v>
                 </c:pt>
                 <c:pt idx="576">
                   <c:v>4.0666666666667</c:v>
@@ -4393,292 +4431,292 @@
                   <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>11.4</c:v>
+                  <c:v>7.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="645">
-                  <c:v>38.599999999999</c:v>
+                  <c:v>28.116666666666</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>32.183333333333</c:v>
+                  <c:v>28.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>14.616666666667</c:v>
+                  <c:v>7.31666666666699</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>9.8000000000001</c:v>
+                  <c:v>7.3000000000001</c:v>
                 </c:pt>
                 <c:pt idx="649">
-                  <c:v>5.05</c:v>
+                  <c:v>2.5166666666667</c:v>
                 </c:pt>
                 <c:pt idx="650">
-                  <c:v>5.0</c:v>
+                  <c:v>2.4833333333333</c:v>
                 </c:pt>
                 <c:pt idx="651">
-                  <c:v>5.0166666666667</c:v>
+                  <c:v>2.4833333333334</c:v>
                 </c:pt>
                 <c:pt idx="652">
-                  <c:v>8.25</c:v>
+                  <c:v>5.7166666666667</c:v>
                 </c:pt>
                 <c:pt idx="653">
-                  <c:v>5.0333333333333</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="654">
-                  <c:v>5.0</c:v>
+                  <c:v>2.4833333333333</c:v>
                 </c:pt>
                 <c:pt idx="655">
-                  <c:v>9.8333333333334</c:v>
+                  <c:v>7.3000000000001</c:v>
                 </c:pt>
                 <c:pt idx="656">
-                  <c:v>5.0666666666667</c:v>
+                  <c:v>2.5333333333334</c:v>
                 </c:pt>
                 <c:pt idx="657">
-                  <c:v>35.383333333333</c:v>
+                  <c:v>23.316666666666</c:v>
                 </c:pt>
                 <c:pt idx="658">
-                  <c:v>21.033333333333</c:v>
+                  <c:v>8.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="659">
-                  <c:v>14.633333333334</c:v>
+                  <c:v>12.1166666666673</c:v>
                 </c:pt>
                 <c:pt idx="660">
-                  <c:v>35.366666666666</c:v>
+                  <c:v>28.0833333333327</c:v>
                 </c:pt>
                 <c:pt idx="661">
-                  <c:v>53.016666666665</c:v>
+                  <c:v>39.299999999998</c:v>
                 </c:pt>
                 <c:pt idx="662">
-                  <c:v>51.366666666665</c:v>
+                  <c:v>23.2833333333319</c:v>
                 </c:pt>
                 <c:pt idx="663">
-                  <c:v>27.383333333333</c:v>
+                  <c:v>8.916666666666</c:v>
                 </c:pt>
                 <c:pt idx="664">
-                  <c:v>59.366666666665</c:v>
+                  <c:v>47.283333333331</c:v>
                 </c:pt>
                 <c:pt idx="665">
-                  <c:v>9.7666666666667</c:v>
+                  <c:v>2.50000000000009</c:v>
                 </c:pt>
                 <c:pt idx="666">
-                  <c:v>91.38333333332901</c:v>
+                  <c:v>61.716666666663</c:v>
                 </c:pt>
                 <c:pt idx="667">
-                  <c:v>59.399999999998</c:v>
+                  <c:v>52.1166666666647</c:v>
                 </c:pt>
                 <c:pt idx="668">
-                  <c:v>40.199999999999</c:v>
+                  <c:v>31.3333333333323</c:v>
                 </c:pt>
                 <c:pt idx="669">
-                  <c:v>30.6</c:v>
+                  <c:v>23.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="670">
-                  <c:v>24.233333333333</c:v>
+                  <c:v>16.9166666666664</c:v>
                 </c:pt>
                 <c:pt idx="671">
-                  <c:v>30.65</c:v>
+                  <c:v>16.9333333333329</c:v>
                 </c:pt>
                 <c:pt idx="672">
-                  <c:v>17.816666666667</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="673">
-                  <c:v>6.65</c:v>
+                  <c:v>4.1333333333333</c:v>
                 </c:pt>
                 <c:pt idx="674">
-                  <c:v>38.616666666666</c:v>
+                  <c:v>32.9166666666659</c:v>
                 </c:pt>
                 <c:pt idx="675">
-                  <c:v>17.816666666667</c:v>
+                  <c:v>8.916666666667</c:v>
                 </c:pt>
                 <c:pt idx="676">
-                  <c:v>25.783333333333</c:v>
+                  <c:v>20.083333333333</c:v>
                 </c:pt>
                 <c:pt idx="677">
-                  <c:v>13.0</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="678">
-                  <c:v>41.799999999999</c:v>
+                  <c:v>34.499999999999</c:v>
                 </c:pt>
                 <c:pt idx="679">
-                  <c:v>22.6</c:v>
+                  <c:v>15.3333333333334</c:v>
                 </c:pt>
                 <c:pt idx="680">
-                  <c:v>16.183333333334</c:v>
+                  <c:v>8.9166666666674</c:v>
                 </c:pt>
                 <c:pt idx="681">
-                  <c:v>17.766666666667</c:v>
+                  <c:v>10.5000000000004</c:v>
                 </c:pt>
                 <c:pt idx="682">
-                  <c:v>51.399999999998</c:v>
+                  <c:v>39.283333333331</c:v>
                 </c:pt>
                 <c:pt idx="683">
-                  <c:v>9.783333333333401</c:v>
+                  <c:v>2.4833333333334</c:v>
                 </c:pt>
                 <c:pt idx="684">
-                  <c:v>43.416666666665</c:v>
+                  <c:v>36.116666666665</c:v>
                 </c:pt>
                 <c:pt idx="685">
-                  <c:v>6.6</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="686">
-                  <c:v>9.783333333333401</c:v>
+                  <c:v>2.4833333333334</c:v>
                 </c:pt>
                 <c:pt idx="687">
-                  <c:v>9.8166666666667</c:v>
+                  <c:v>4.1166666666667</c:v>
                 </c:pt>
                 <c:pt idx="688">
-                  <c:v>6.6</c:v>
+                  <c:v>2.48333333333329</c:v>
                 </c:pt>
                 <c:pt idx="689">
-                  <c:v>13.016666666667</c:v>
+                  <c:v>5.7000000000004</c:v>
                 </c:pt>
                 <c:pt idx="690">
-                  <c:v>16.216666666667</c:v>
+                  <c:v>5.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="691">
-                  <c:v>38.649999999999</c:v>
+                  <c:v>29.7333333333322</c:v>
                 </c:pt>
                 <c:pt idx="692">
-                  <c:v>22.583333333333</c:v>
+                  <c:v>16.883333333333</c:v>
                 </c:pt>
                 <c:pt idx="693">
-                  <c:v>11.416666666667</c:v>
+                  <c:v>7.316666666667</c:v>
                 </c:pt>
                 <c:pt idx="694">
-                  <c:v>16.25</c:v>
+                  <c:v>10.5333333333333</c:v>
                 </c:pt>
                 <c:pt idx="695">
-                  <c:v>10.35</c:v>
+                  <c:v>5.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="696">
-                  <c:v>13.05</c:v>
+                  <c:v>5.7166666666667</c:v>
                 </c:pt>
                 <c:pt idx="697">
-                  <c:v>8.2666666666667</c:v>
+                  <c:v>4.13333333333339</c:v>
                 </c:pt>
                 <c:pt idx="698">
-                  <c:v>24.166666666667</c:v>
+                  <c:v>21.7000000000002</c:v>
                 </c:pt>
                 <c:pt idx="699">
-                  <c:v>13.0</c:v>
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="700">
-                  <c:v>22.6</c:v>
+                  <c:v>16.8833333333333</c:v>
                 </c:pt>
                 <c:pt idx="701">
-                  <c:v>17.783333333334</c:v>
+                  <c:v>10.5166666666674</c:v>
                 </c:pt>
                 <c:pt idx="702">
-                  <c:v>22.633333333333</c:v>
+                  <c:v>13.7333333333329</c:v>
                 </c:pt>
                 <c:pt idx="703">
-                  <c:v>41.083333333332</c:v>
+                  <c:v>29.683333333332</c:v>
                 </c:pt>
                 <c:pt idx="704">
-                  <c:v>65.133333333331</c:v>
+                  <c:v>26.5333333333319</c:v>
                 </c:pt>
                 <c:pt idx="705">
-                  <c:v>68.283333333331</c:v>
+                  <c:v>36.099999999998</c:v>
                 </c:pt>
                 <c:pt idx="706">
-                  <c:v>60.316666666665</c:v>
+                  <c:v>45.699999999998</c:v>
                 </c:pt>
                 <c:pt idx="707">
-                  <c:v>7.55</c:v>
+                  <c:v>2.48333333333329</c:v>
                 </c:pt>
                 <c:pt idx="708">
-                  <c:v>28.333333333333</c:v>
+                  <c:v>13.699999999999</c:v>
                 </c:pt>
                 <c:pt idx="709">
-                  <c:v>92.266666666663</c:v>
+                  <c:v>56.899999999997</c:v>
                 </c:pt>
                 <c:pt idx="710">
-                  <c:v>68.299999999997</c:v>
+                  <c:v>8.933333333332</c:v>
                 </c:pt>
                 <c:pt idx="711">
-                  <c:v>36.249999999999</c:v>
+                  <c:v>26.4833333333322</c:v>
                 </c:pt>
                 <c:pt idx="712">
-                  <c:v>285.91666666674</c:v>
+                  <c:v>194.533333333411</c:v>
                 </c:pt>
                 <c:pt idx="713">
-                  <c:v>117.89999999999</c:v>
+                  <c:v>58.499999999992</c:v>
                 </c:pt>
                 <c:pt idx="714">
-                  <c:v>77.93333333333</c:v>
+                  <c:v>37.733333333331</c:v>
                 </c:pt>
                 <c:pt idx="715">
-                  <c:v>97.099999999996</c:v>
+                  <c:v>66.4999999999959</c:v>
                 </c:pt>
                 <c:pt idx="716">
-                  <c:v>25.15</c:v>
+                  <c:v>7.33333333333299</c:v>
                 </c:pt>
                 <c:pt idx="717">
-                  <c:v>15.583333333334</c:v>
+                  <c:v>8.933333333334</c:v>
                 </c:pt>
                 <c:pt idx="718">
-                  <c:v>68.349999999997</c:v>
+                  <c:v>29.7333333333309</c:v>
                 </c:pt>
                 <c:pt idx="719">
-                  <c:v>98.699999999996</c:v>
+                  <c:v>80.88333333332891</c:v>
                 </c:pt>
                 <c:pt idx="720">
-                  <c:v>55.499999999998</c:v>
+                  <c:v>29.716666666665</c:v>
                 </c:pt>
                 <c:pt idx="721">
-                  <c:v>33.133333333333</c:v>
+                  <c:v>20.133333333333</c:v>
                 </c:pt>
                 <c:pt idx="722">
-                  <c:v>108.33333333333</c:v>
+                  <c:v>66.533333333331</c:v>
                 </c:pt>
                 <c:pt idx="723">
-                  <c:v>69.916666666664</c:v>
+                  <c:v>47.316666666664</c:v>
                 </c:pt>
                 <c:pt idx="724">
-                  <c:v>26.7</c:v>
+                  <c:v>10.5166666666659</c:v>
                 </c:pt>
                 <c:pt idx="725">
-                  <c:v>68.299999999997</c:v>
+                  <c:v>50.53333333333</c:v>
                 </c:pt>
                 <c:pt idx="726">
-                  <c:v>37.899999999999</c:v>
+                  <c:v>28.1166666666655</c:v>
                 </c:pt>
                 <c:pt idx="727">
-                  <c:v>84.266666666663</c:v>
+                  <c:v>74.4833333333296</c:v>
                 </c:pt>
                 <c:pt idx="728">
-                  <c:v>18.7</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="729">
-                  <c:v>34.749999999999</c:v>
+                  <c:v>18.533333333332</c:v>
                 </c:pt>
                 <c:pt idx="730">
-                  <c:v>124.36666666666</c:v>
+                  <c:v>85.716666666661</c:v>
                 </c:pt>
                 <c:pt idx="731">
-                  <c:v>90.666666666663</c:v>
+                  <c:v>68.08333333333</c:v>
                 </c:pt>
                 <c:pt idx="732">
-                  <c:v>55.516666666665</c:v>
+                  <c:v>44.099999999998</c:v>
                 </c:pt>
                 <c:pt idx="733">
-                  <c:v>43.366666666665</c:v>
+                  <c:v>33.0166666666649</c:v>
                 </c:pt>
                 <c:pt idx="734">
-                  <c:v>18.783333333334</c:v>
+                  <c:v>10.5166666666673</c:v>
                 </c:pt>
                 <c:pt idx="735">
-                  <c:v>28.266666666666</c:v>
+                  <c:v>4.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="736">
-                  <c:v>55.483333333331</c:v>
+                  <c:v>42.483333333331</c:v>
                 </c:pt>
                 <c:pt idx="737">
-                  <c:v>129.08333333333</c:v>
+                  <c:v>106.48333333333</c:v>
                 </c:pt>
                 <c:pt idx="738">
-                  <c:v>44.299999999999</c:v>
+                  <c:v>26.516666666665</c:v>
                 </c:pt>
                 <c:pt idx="739">
-                  <c:v>108.35</c:v>
+                  <c:v>85.716666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4693,11 +4731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-455173600"/>
-        <c:axId val="-361117408"/>
+        <c:axId val="-338421008"/>
+        <c:axId val="-278391968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-455173600"/>
+        <c:axId val="-338421008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,13 +4758,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-361117408"/>
+        <c:crossAx val="-278391968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-361117408"/>
+        <c:axId val="-278391968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150.0"/>
@@ -4831,7 +4869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-455173600"/>
+        <c:crossAx val="-338421008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
@@ -5405,16 +5443,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>541867</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>141110</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>782137</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127686</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:rowOff>188555</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5781,117 +5819,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F881"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>MEDIAN(B2:B92)</f>
+        <v>5.4166666666666998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>10.533333333332999</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>MEDIAN(B94:B175)</f>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>3.9333333333332998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>MEDIAN(B176:B249)</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>12.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MEDIAN(B250:B326)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
         <v>3.8833333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f>MEDIAN(B327:B380)</f>
+        <v>15.375000000000099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>3.9166666666666998</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>MEDIAN(B381:B431)</f>
+        <v>12.199999999998999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>10.333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>MEDIAN(B432:B489)</f>
+        <v>6.0916666666666499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f>MEDIAN(B490:B537)</f>
+        <v>7.4499999999999904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
         <v>3.9166666666666998</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f>MEDIAN(B538:B577)</f>
+        <v>12.88333333333245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>3.9166666666666998</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>MEDIAN(B578:B645)</f>
+        <v>5.7166666666666996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>6.5666666666665998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f>MEDIAN(B646:B704)</f>
+        <v>8.9166666666673997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
         <v>3.3666666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>MEDIAN(B705:B741)</f>
+        <v>33.016666666664896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5899,7 +6027,7 @@
         <v>2.2166666666667001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5907,7 +6035,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6536,7 +6664,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>9.4166666666666998</v>
+        <v>5.5666666666667002</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -6544,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>7.9333333333332998</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -6552,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="B96">
-        <v>7.95</v>
+        <v>4.0333333333333004</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -6560,7 +6688,7 @@
         <v>2</v>
       </c>
       <c r="B97">
-        <v>26.333333333333002</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -6568,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="B98">
-        <v>7.9833333333332996</v>
+        <v>4.0666666666665998</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -6576,7 +6704,7 @@
         <v>2</v>
       </c>
       <c r="B99">
-        <v>8.0166666666666</v>
+        <v>4.0999999999999002</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -6584,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="B100">
-        <v>14.566666666667</v>
+        <v>8.0000000000003997</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -6592,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="B101">
-        <v>5.4333333333332998</v>
+        <v>2.0666666666665998</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -6600,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="B102">
-        <v>4.2333333333332996</v>
+        <v>2.0166666666665898</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -6608,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="B103">
-        <v>6.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -6616,7 +6744,7 @@
         <v>2</v>
       </c>
       <c r="B104">
-        <v>4.2</v>
+        <v>1.9666666666667001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -6624,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="B105">
-        <v>4.2833333333333004</v>
+        <v>2.0166666666666</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -6632,7 +6760,7 @@
         <v>2</v>
       </c>
       <c r="B106">
-        <v>4.3499999999999996</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -6640,7 +6768,7 @@
         <v>2</v>
       </c>
       <c r="B107">
-        <v>5.8333333333333002</v>
+        <v>2.0166666666666</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -6648,7 +6776,7 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>11.2</v>
+        <v>5.6999999999999904</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -6656,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="B109">
-        <v>7.95</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -6664,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="B110">
-        <v>14.183333333334</v>
+        <v>7.1666666666673997</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -6672,7 +6800,7 @@
         <v>2</v>
       </c>
       <c r="B111">
-        <v>7.8666666666665996</v>
+        <v>4.0499999999998897</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -6680,7 +6808,7 @@
         <v>2</v>
       </c>
       <c r="B112">
-        <v>12.916666666667</v>
+        <v>7.9666666666669999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -6688,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="B113">
-        <v>18.483333333333999</v>
+        <v>10.4166666666673</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -6696,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="B114">
-        <v>70.849999999996996</v>
+        <v>63.2333333333303</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -6704,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="B115">
-        <v>16.333333333334</v>
+        <v>9.2500000000006999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -6712,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="B116">
-        <v>12.433333333334</v>
+        <v>5.9666666666673898</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -6720,7 +6848,7 @@
         <v>2</v>
       </c>
       <c r="B117">
-        <v>10.566666666667</v>
+        <v>5.6333333333336997</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -6728,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="B118">
-        <v>35.399999999998997</v>
+        <v>12.883333333331899</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -6736,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="B119">
-        <v>31.549999999998999</v>
+        <v>12.783333333331999</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -6744,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="B120">
-        <v>11.516666666667</v>
+        <v>9.1500000000003006</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -6752,7 +6880,7 @@
         <v>2</v>
       </c>
       <c r="B121">
-        <v>24.916666666666998</v>
+        <v>11.966666666666899</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -6760,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="B122">
-        <v>6.8833333333333</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -6768,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="B123">
-        <v>10.716666666667001</v>
+        <v>5.2166666666669999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -6776,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="B124">
-        <v>14.366666666666999</v>
+        <v>7.3000000000003897</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -6784,7 +6912,7 @@
         <v>2</v>
       </c>
       <c r="B125">
-        <v>14.1</v>
+        <v>9.1666666666666998</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -6792,7 +6920,7 @@
         <v>2</v>
       </c>
       <c r="B126">
-        <v>11.516666666667</v>
+        <v>9.1500000000003006</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -6800,7 +6928,7 @@
         <v>2</v>
       </c>
       <c r="B127">
-        <v>8.9333333333333993</v>
+        <v>4.0333333333333901</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -6808,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="B128">
-        <v>9.5666666666667002</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -6816,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="B129">
-        <v>35.249999999998998</v>
+        <v>19.666666666664899</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -6824,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="B130">
-        <v>9.5333333333334007</v>
+        <v>7.1666666666666998</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -6832,7 +6960,7 @@
         <v>2</v>
       </c>
       <c r="B131">
-        <v>13.85</v>
+        <v>8.3999999999999897</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -6840,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="B132">
-        <v>11.266666666667</v>
+        <v>2.0500000000002898</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -6848,7 +6976,7 @@
         <v>2</v>
       </c>
       <c r="B133">
-        <v>18.066666666667</v>
+        <v>13.700000000000299</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -6856,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="B134">
-        <v>14.283333333333999</v>
+        <v>10.3666666666673</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -6864,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="B135">
-        <v>44.466666666664999</v>
+        <v>20.783333333331999</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -6872,7 +7000,7 @@
         <v>2</v>
       </c>
       <c r="B136">
-        <v>9.6166666666666991</v>
+        <v>4.0999999999999899</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -6880,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="B137">
-        <v>9.4666666666667005</v>
+        <v>5.5833333333333997</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -6888,7 +7016,7 @@
         <v>2</v>
       </c>
       <c r="B138">
-        <v>19.083333333334</v>
+        <v>12.0000000000007</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -6896,7 +7024,7 @@
         <v>2</v>
       </c>
       <c r="B139">
-        <v>15.15</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -6904,7 +7032,7 @@
         <v>2</v>
       </c>
       <c r="B140">
-        <v>4.6166666666667</v>
+        <v>2.3833333333333999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -6912,7 +7040,7 @@
         <v>2</v>
       </c>
       <c r="B141">
-        <v>6.2666666666666</v>
+        <v>3.9999999999999001</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -6920,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="B142">
-        <v>14.516666666667</v>
+        <v>9.6333333333336899</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -6928,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="B143">
-        <v>9.5666666666667002</v>
+        <v>4.0333333333333998</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -6936,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="B144">
-        <v>7.3833333333333</v>
+        <v>4.0166666666666</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -6944,7 +7072,7 @@
         <v>2</v>
       </c>
       <c r="B145">
-        <v>16.983333333333999</v>
+        <v>5.60000000000099</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -6952,7 +7080,7 @@
         <v>2</v>
       </c>
       <c r="B146">
-        <v>12.05</v>
+        <v>5.5666666666667002</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -6960,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="B147">
-        <v>14.3</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -6968,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="B148">
-        <v>21.75</v>
+        <v>15.2333333333334</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -6976,7 +7104,7 @@
         <v>2</v>
       </c>
       <c r="B149">
-        <v>9.9833333333334</v>
+        <v>5.6333333333334004</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -6984,7 +7112,7 @@
         <v>2</v>
       </c>
       <c r="B150">
-        <v>21.55</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -6992,7 +7120,7 @@
         <v>2</v>
       </c>
       <c r="B151">
-        <v>13.466666666667001</v>
+        <v>5.2833333333337</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -7000,7 +7128,7 @@
         <v>2</v>
       </c>
       <c r="B152">
-        <v>24.666666666666998</v>
+        <v>9.1499999999999897</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -7008,7 +7136,7 @@
         <v>2</v>
       </c>
       <c r="B153">
-        <v>14.25</v>
+        <v>3.9666666666669999</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -7016,7 +7144,7 @@
         <v>2</v>
       </c>
       <c r="B154">
-        <v>4.7833333333333004</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -7024,7 +7152,7 @@
         <v>2</v>
       </c>
       <c r="B155">
-        <v>19.183333333334001</v>
+        <v>8.9000000000010004</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -7032,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="B156">
-        <v>6.6333333333333</v>
+        <v>4.3666666666665996</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -7040,7 +7168,7 @@
         <v>2</v>
       </c>
       <c r="B157">
-        <v>46.933333333332001</v>
+        <v>32.866666666664997</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -7048,7 +7176,7 @@
         <v>2</v>
       </c>
       <c r="B158">
-        <v>21.333333333333002</v>
+        <v>14.849999999999699</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -7056,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="B159">
-        <v>14.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -7064,7 +7192,7 @@
         <v>2</v>
       </c>
       <c r="B160">
-        <v>30.883333333332999</v>
+        <v>13.666666666666</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -7072,7 +7200,7 @@
         <v>2</v>
       </c>
       <c r="B161">
-        <v>6.3666666666665996</v>
+        <v>4.0666666666665998</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -7080,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="B162">
-        <v>13.583333333334</v>
+        <v>4.3500000000006001</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -7088,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>5.6666666666666998</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -7096,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="B164">
-        <v>8.8000000000000007</v>
+        <v>4.4166666666666998</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -7104,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="B165">
-        <v>7.2333333333332996</v>
+        <v>4.3833333333332902</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -7112,7 +7240,7 @@
         <v>2</v>
       </c>
       <c r="B166">
-        <v>11.283333333332999</v>
+        <v>6.3499999999996897</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -7120,7 +7248,7 @@
         <v>2</v>
       </c>
       <c r="B167">
-        <v>7.8666666666665996</v>
+        <v>4.0499999999998897</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -7128,7 +7256,7 @@
         <v>2</v>
       </c>
       <c r="B168">
-        <v>15.8</v>
+        <v>6.0666666666665998</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -7136,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="B169">
-        <v>9.0333333333334007</v>
+        <v>1.9666666666668</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -7144,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="B170">
-        <v>9.9500000000001005</v>
+        <v>6.0000000000001004</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -7152,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="B171">
-        <v>7.9666666666666002</v>
+        <v>2.4499999999998998</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -7160,7 +7288,7 @@
         <v>2</v>
       </c>
       <c r="B172">
-        <v>21.5</v>
+        <v>11.216666666667001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -7168,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="B173">
-        <v>14.4</v>
+        <v>8.8666666666666991</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -7176,7 +7304,7 @@
         <v>2</v>
       </c>
       <c r="B174">
-        <v>14.733333333334</v>
+        <v>5.6166666666673004</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -7184,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="B175">
-        <v>11.6</v>
+        <v>3.9833333333334</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -7192,7 +7320,7 @@
         <v>3</v>
       </c>
       <c r="B176">
-        <v>15.033333333333999</v>
+        <v>5.6166666666672898</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -7200,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="B177">
-        <v>18.683333333334001</v>
+        <v>10.7500000000007</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -7208,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="B178">
-        <v>16.783333333333999</v>
+        <v>8.8333333333340001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -7216,7 +7344,7 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>41.299999999999002</v>
+        <v>14.966666666666001</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -7224,7 +7352,7 @@
         <v>3</v>
       </c>
       <c r="B180">
-        <v>13.666666666667</v>
+        <v>5.6833333333337004</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -7232,7 +7360,7 @@
         <v>3</v>
       </c>
       <c r="B181">
-        <v>15.216666666667001</v>
+        <v>7.2000000000003999</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -7240,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="B182">
-        <v>27.616666666665999</v>
+        <v>13.049999999998899</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -7248,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="B183">
-        <v>10.8</v>
+        <v>5.3666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -7256,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="B184">
-        <v>6.4166666666666003</v>
+        <v>2.1833333333332998</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -7264,7 +7392,7 @@
         <v>3</v>
       </c>
       <c r="B185">
-        <v>11.933333333334</v>
+        <v>5.6833333333339997</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -7272,7 +7400,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>6.5333333333333004</v>
+        <v>2.1833333333332998</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -7280,7 +7408,7 @@
         <v>3</v>
       </c>
       <c r="B187">
-        <v>8.0166666666666</v>
+        <v>2.1833333333332998</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -7288,7 +7416,7 @@
         <v>3</v>
       </c>
       <c r="B188">
-        <v>14.183333333334</v>
+        <v>6.2333333333339898</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -7296,7 +7424,7 @@
         <v>3</v>
       </c>
       <c r="B189">
-        <v>27.866666666665999</v>
+        <v>13.683333333332</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -7304,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="B190">
-        <v>13.5</v>
+        <v>5.6333333333334004</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -7312,7 +7440,7 @@
         <v>3</v>
       </c>
       <c r="B191">
-        <v>28.766666666666001</v>
+        <v>15.849999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -7320,7 +7448,7 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>27.683333333333</v>
+        <v>9.1999999999989992</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -7328,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>89.299999999996004</v>
+        <v>18.449999999999001</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -7336,7 +7464,7 @@
         <v>3</v>
       </c>
       <c r="B194">
-        <v>24.233333333333</v>
+        <v>7.8999999999990003</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -7344,7 +7472,7 @@
         <v>3</v>
       </c>
       <c r="B195">
-        <v>19.916666666666998</v>
+        <v>7.4833333333329897</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -7352,7 +7480,7 @@
         <v>3</v>
       </c>
       <c r="B196">
-        <v>13.066666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -7360,7 +7488,7 @@
         <v>3</v>
       </c>
       <c r="B197">
-        <v>48.149999999998997</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -7368,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="B198">
-        <v>37.433333333332001</v>
+        <v>5.8833333333329998</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -7376,7 +7504,7 @@
         <v>3</v>
       </c>
       <c r="B199">
-        <v>17.45</v>
+        <v>5.9333333333329996</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -7384,7 +7512,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>25.266666666667</v>
+        <v>18.383333333333699</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -7392,7 +7520,7 @@
         <v>3</v>
       </c>
       <c r="B201">
-        <v>17.683333333334001</v>
+        <v>6.9666666666669999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -7400,7 +7528,7 @@
         <v>3</v>
       </c>
       <c r="B202">
-        <v>24.216666666666999</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -7408,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="B203">
-        <v>26.083333333333002</v>
+        <v>11.983333333333</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -7416,7 +7544,7 @@
         <v>3</v>
       </c>
       <c r="B204">
-        <v>19.100000000000001</v>
+        <v>7.583333333333</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -7424,7 +7552,7 @@
         <v>3</v>
       </c>
       <c r="B205">
-        <v>15.883333333334001</v>
+        <v>6.9500000000005997</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -7432,7 +7560,7 @@
         <v>3</v>
       </c>
       <c r="B206">
-        <v>15.216666666667001</v>
+        <v>5.6500000000002997</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -7440,7 +7568,7 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>38.633333333331997</v>
+        <v>3.38333333333299</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -7448,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="B208">
-        <v>28.3</v>
+        <v>18.766666666666602</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -7456,7 +7584,7 @@
         <v>3</v>
       </c>
       <c r="B209">
-        <v>19.166666666666998</v>
+        <v>5.3166666666669897</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -7464,7 +7592,7 @@
         <v>3</v>
       </c>
       <c r="B210">
-        <v>16.633333333334001</v>
+        <v>5.3666666666670002</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -7472,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="B211">
-        <v>29.5</v>
+        <v>15.216666666666001</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -7480,7 +7608,7 @@
         <v>3</v>
       </c>
       <c r="B212">
-        <v>20.033333333333001</v>
+        <v>10.4166666666663</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -7488,7 +7616,7 @@
         <v>3</v>
       </c>
       <c r="B213">
-        <v>14.416666666667</v>
+        <v>4.9500000000002897</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -7496,7 +7624,7 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>24.116666666667001</v>
+        <v>5.0333333333330001</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -7504,7 +7632,7 @@
         <v>3</v>
       </c>
       <c r="B215">
-        <v>17.583333333334</v>
+        <v>2.4333333333339899</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -7512,7 +7640,7 @@
         <v>3</v>
       </c>
       <c r="B216">
-        <v>7.0666666666665998</v>
+        <v>2.4499999999998998</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -7520,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="B217">
-        <v>28.733333333333</v>
+        <v>14.216666666666001</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -7528,7 +7656,7 @@
         <v>3</v>
       </c>
       <c r="B218">
-        <v>18.399999999999999</v>
+        <v>8.8333333333332895</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -7536,7 +7664,7 @@
         <v>3</v>
       </c>
       <c r="B219">
-        <v>13.066666666667</v>
+        <v>5.6833333333337004</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -7544,7 +7672,7 @@
         <v>3</v>
       </c>
       <c r="B220">
-        <v>23.533333333333001</v>
+        <v>6.5499999999989997</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -7552,7 +7680,7 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>20.866666666667001</v>
+        <v>8.8166666666670004</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -7560,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="B222">
-        <v>21.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -7568,7 +7696,7 @@
         <v>3</v>
       </c>
       <c r="B223">
-        <v>28.7</v>
+        <v>6.9499999999999904</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -7576,7 +7704,7 @@
         <v>3</v>
       </c>
       <c r="B224">
-        <v>18.833333333334</v>
+        <v>8.8500000000006001</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -7584,7 +7712,7 @@
         <v>3</v>
       </c>
       <c r="B225">
-        <v>38.966666666666001</v>
+        <v>17.416666666666</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -7592,7 +7720,7 @@
         <v>3</v>
       </c>
       <c r="B226">
-        <v>25.2</v>
+        <v>11.733333333332901</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -7600,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="B227">
-        <v>37.033333333332997</v>
+        <v>12.366666666665999</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -7608,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>21.55</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -7616,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="B229">
-        <v>10.083333333333</v>
+        <v>5.2999999999996996</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -7624,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="B230">
-        <v>24.15</v>
+        <v>4.96666666666599</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -7632,7 +7760,7 @@
         <v>3</v>
       </c>
       <c r="B231">
-        <v>10.683333333333</v>
+        <v>4.0499999999996996</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -7640,7 +7768,7 @@
         <v>3</v>
       </c>
       <c r="B232">
-        <v>59.983333333330997</v>
+        <v>13.049999999998899</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -7648,7 +7776,7 @@
         <v>3</v>
       </c>
       <c r="B233">
-        <v>34.933333333333003</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -7656,7 +7784,7 @@
         <v>3</v>
       </c>
       <c r="B234">
-        <v>22</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -7664,7 +7792,7 @@
         <v>3</v>
       </c>
       <c r="B235">
-        <v>40.716666666666001</v>
+        <v>9.833333333333</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -7672,7 +7800,7 @@
         <v>3</v>
       </c>
       <c r="B236">
-        <v>16.166666666666998</v>
+        <v>9.8000000000003897</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -7680,7 +7808,7 @@
         <v>3</v>
       </c>
       <c r="B237">
-        <v>20.866666666667001</v>
+        <v>7.2833333333330001</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -7688,7 +7816,7 @@
         <v>3</v>
       </c>
       <c r="B238">
-        <v>18.149999999999999</v>
+        <v>10.149999999999901</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -7696,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="B239">
-        <v>18.866666666667001</v>
+        <v>10.066666666667</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -7704,7 +7832,7 @@
         <v>3</v>
       </c>
       <c r="B240">
-        <v>11.016666666667</v>
+        <v>3.7833333333337</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -7712,7 +7840,7 @@
         <v>3</v>
       </c>
       <c r="B241">
-        <v>18.266666666667</v>
+        <v>6.9833333333340004</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -7720,7 +7848,7 @@
         <v>3</v>
       </c>
       <c r="B242">
-        <v>13.533333333333999</v>
+        <v>5.6666666666673997</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -7728,7 +7856,7 @@
         <v>3</v>
       </c>
       <c r="B243">
-        <v>19.483333333333999</v>
+        <v>3.6833333333339899</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -7736,7 +7864,7 @@
         <v>3</v>
       </c>
       <c r="B244">
-        <v>18.416666666666998</v>
+        <v>8.4666666666668906</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -7744,7 +7872,7 @@
         <v>3</v>
       </c>
       <c r="B245">
-        <v>13.3</v>
+        <v>5.3333333333333997</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -7752,7 +7880,7 @@
         <v>3</v>
       </c>
       <c r="B246">
-        <v>33.816666666666002</v>
+        <v>12.316666666666</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -7760,7 +7888,7 @@
         <v>3</v>
       </c>
       <c r="B247">
-        <v>24.866666666667001</v>
+        <v>10.466666666667001</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -7768,7 +7896,7 @@
         <v>3</v>
       </c>
       <c r="B248">
-        <v>25.466666666666999</v>
+        <v>10.733333333332901</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -7776,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="B249">
-        <v>16.983333333333999</v>
+        <v>5.3833333333339901</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -8400,7 +8528,7 @@
         <v>5</v>
       </c>
       <c r="B327">
-        <v>29.133333333332999</v>
+        <v>18.566666666665999</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -8408,7 +8536,7 @@
         <v>5</v>
       </c>
       <c r="B328">
-        <v>29.083333333333002</v>
+        <v>16.966666666666001</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -8416,7 +8544,7 @@
         <v>5</v>
       </c>
       <c r="B329">
-        <v>40.299999999999002</v>
+        <v>26.566666666665</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -8424,7 +8552,7 @@
         <v>5</v>
       </c>
       <c r="B330">
-        <v>25.916666666666</v>
+        <v>16.983333333332599</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -8432,7 +8560,7 @@
         <v>5</v>
       </c>
       <c r="B331">
-        <v>13.133333333334001</v>
+        <v>7.3666666666673004</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -8440,7 +8568,7 @@
         <v>5</v>
       </c>
       <c r="B332">
-        <v>8.1666666666666998</v>
+        <v>5.7666666666666897</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -8448,7 +8576,7 @@
         <v>5</v>
       </c>
       <c r="B333">
-        <v>27.45</v>
+        <v>12.166666666666</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -8456,7 +8584,7 @@
         <v>5</v>
       </c>
       <c r="B334">
-        <v>35.483333333333</v>
+        <v>13.766666666666</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -8464,7 +8592,7 @@
         <v>5</v>
       </c>
       <c r="B335">
-        <v>32.266666666665998</v>
+        <v>24.983333333332698</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -8472,7 +8600,7 @@
         <v>5</v>
       </c>
       <c r="B336">
-        <v>75.549999999996999</v>
+        <v>68.183333333330395</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -8480,7 +8608,7 @@
         <v>5</v>
       </c>
       <c r="B337">
-        <v>21.016666666667</v>
+        <v>13.766666666667</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -8488,7 +8616,7 @@
         <v>5</v>
       </c>
       <c r="B338">
-        <v>61.016666666664001</v>
+        <v>56.966666666663997</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -8496,7 +8624,7 @@
         <v>5</v>
       </c>
       <c r="B339">
-        <v>22.633333333332999</v>
+        <v>12.183333333333</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -8504,7 +8632,7 @@
         <v>5</v>
       </c>
       <c r="B340">
-        <v>62.666666666664</v>
+        <v>48.966666666663997</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -8512,7 +8640,7 @@
         <v>5</v>
       </c>
       <c r="B341">
-        <v>21.15</v>
+        <v>15.3833333333332</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -8520,7 +8648,7 @@
         <v>5</v>
       </c>
       <c r="B342">
-        <v>17.833333333334</v>
+        <v>12.183333333334</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -8528,7 +8656,7 @@
         <v>5</v>
       </c>
       <c r="B343">
-        <v>32.283333333332997</v>
+        <v>20.1666666666659</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -8536,7 +8664,7 @@
         <v>5</v>
       </c>
       <c r="B344">
-        <v>29.05</v>
+        <v>21.766666666666701</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -8544,7 +8672,7 @@
         <v>5</v>
       </c>
       <c r="B345">
-        <v>14.666666666667</v>
+        <v>8.9833333333337002</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -8552,7 +8680,7 @@
         <v>5</v>
       </c>
       <c r="B346">
-        <v>44.983333333331998</v>
+        <v>28.183333333331898</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -8560,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="B347">
-        <v>24.3</v>
+        <v>18.566666666666698</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -8568,7 +8696,7 @@
         <v>5</v>
       </c>
       <c r="B348">
-        <v>12.983333333334</v>
+        <v>8.9666666666672992</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -8576,7 +8704,7 @@
         <v>5</v>
       </c>
       <c r="B349">
-        <v>24.3</v>
+        <v>12.166666666666</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -8584,7 +8712,7 @@
         <v>5</v>
       </c>
       <c r="B350">
-        <v>28.983333333333</v>
+        <v>24.983333333333</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -8592,7 +8720,7 @@
         <v>5</v>
       </c>
       <c r="B351">
-        <v>32.183333333333003</v>
+        <v>10.566666666666</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -8600,7 +8728,7 @@
         <v>5</v>
       </c>
       <c r="B352">
-        <v>48.283333333332003</v>
+        <v>34.566666666665</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -8608,7 +8736,7 @@
         <v>5</v>
       </c>
       <c r="B353">
-        <v>52.949999999997999</v>
+        <v>47.366666666664699</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -8616,7 +8744,7 @@
         <v>5</v>
       </c>
       <c r="B354">
-        <v>13.083333333334</v>
+        <v>8.9833333333340004</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -8624,7 +8752,7 @@
         <v>5</v>
       </c>
       <c r="B355">
-        <v>14.7</v>
+        <v>7.3666666666666902</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -8632,7 +8760,7 @@
         <v>5</v>
       </c>
       <c r="B356">
-        <v>21.1</v>
+        <v>13.783333333333401</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -8640,7 +8768,7 @@
         <v>5</v>
       </c>
       <c r="B357">
-        <v>17.899999999999999</v>
+        <v>10.5833333333334</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -8648,7 +8776,7 @@
         <v>5</v>
       </c>
       <c r="B358">
-        <v>17.883333333334001</v>
+        <v>12.1666666666673</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -8656,7 +8784,7 @@
         <v>5</v>
       </c>
       <c r="B359">
-        <v>28.966666666666001</v>
+        <v>21.766666666666001</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -8664,7 +8792,7 @@
         <v>5</v>
       </c>
       <c r="B360">
-        <v>32.233333333333</v>
+        <v>23.383333333332999</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -8672,7 +8800,7 @@
         <v>5</v>
       </c>
       <c r="B361">
-        <v>27.45</v>
+        <v>20.183333333333401</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -8680,7 +8808,7 @@
         <v>5</v>
       </c>
       <c r="B362">
-        <v>14.616666666666999</v>
+        <v>12.183333333333699</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -8688,7 +8816,7 @@
         <v>5</v>
       </c>
       <c r="B363">
-        <v>36.949999999999001</v>
+        <v>20.166666666665002</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -8696,7 +8824,7 @@
         <v>5</v>
       </c>
       <c r="B364">
-        <v>9.8333333333333997</v>
+        <v>7.3833333333333897</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -8704,7 +8832,7 @@
         <v>5</v>
       </c>
       <c r="B365">
-        <v>29.016666666666001</v>
+        <v>20.166666666666</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -8712,7 +8840,7 @@
         <v>5</v>
       </c>
       <c r="B366">
-        <v>33.899999999998997</v>
+        <v>20.183333333331898</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -8720,7 +8848,7 @@
         <v>5</v>
       </c>
       <c r="B367">
-        <v>24.25</v>
+        <v>16.983333333333398</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -8728,7 +8856,7 @@
         <v>5</v>
       </c>
       <c r="B368">
-        <v>29.133333333332999</v>
+        <v>18.566666666665999</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -8736,7 +8864,7 @@
         <v>5</v>
       </c>
       <c r="B369">
-        <v>22.666666666666998</v>
+        <v>13.7666666666669</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -8744,7 +8872,7 @@
         <v>5</v>
       </c>
       <c r="B370">
-        <v>25.9</v>
+        <v>8.96666666666599</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -8752,7 +8880,7 @@
         <v>5</v>
       </c>
       <c r="B371">
-        <v>19.45</v>
+        <v>13.766666666666699</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -8760,7 +8888,7 @@
         <v>5</v>
       </c>
       <c r="B372">
-        <v>16.233333333333999</v>
+        <v>12.166666666667201</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -8768,7 +8896,7 @@
         <v>5</v>
       </c>
       <c r="B373">
-        <v>16.283333333333999</v>
+        <v>12.183333333334</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -8776,7 +8904,7 @@
         <v>5</v>
       </c>
       <c r="B374">
-        <v>24.266666666667</v>
+        <v>15.366666666666999</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -8784,7 +8912,7 @@
         <v>5</v>
       </c>
       <c r="B375">
-        <v>22.7</v>
+        <v>8.9833333333329897</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -8792,7 +8920,7 @@
         <v>5</v>
       </c>
       <c r="B376">
-        <v>27.4</v>
+        <v>24.983333333333299</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -8800,7 +8928,7 @@
         <v>5</v>
       </c>
       <c r="B377">
-        <v>40.299999999999002</v>
+        <v>31.383333333332299</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -8808,7 +8936,7 @@
         <v>5</v>
       </c>
       <c r="B378">
-        <v>22.566666666667</v>
+        <v>8.9666666666670007</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -8816,7 +8944,7 @@
         <v>5</v>
       </c>
       <c r="B379">
-        <v>33.899999999998997</v>
+        <v>26.583333333332298</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -8824,7 +8952,7 @@
         <v>5</v>
       </c>
       <c r="B380">
-        <v>21.016666666667</v>
+        <v>12.166666666667</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -8832,7 +8960,7 @@
         <v>6</v>
       </c>
       <c r="B381">
-        <v>39.766666666665998</v>
+        <v>10.633333333332899</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -8840,7 +8968,7 @@
         <v>6</v>
       </c>
       <c r="B382">
-        <v>41.283333333332003</v>
+        <v>12.199999999998999</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -8848,7 +8976,7 @@
         <v>6</v>
       </c>
       <c r="B383">
-        <v>52.516666666665003</v>
+        <v>12.216666666666001</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -8856,7 +8984,7 @@
         <v>6</v>
       </c>
       <c r="B384">
-        <v>42.933333333332001</v>
+        <v>17.016666666666001</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -8864,7 +8992,7 @@
         <v>6</v>
       </c>
       <c r="B385">
-        <v>26.966666666666001</v>
+        <v>13.833333333332</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -8872,7 +9000,7 @@
         <v>6</v>
       </c>
       <c r="B386">
-        <v>18.8</v>
+        <v>13.1666666666667</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -8880,7 +9008,7 @@
         <v>6</v>
       </c>
       <c r="B387">
-        <v>12.4</v>
+        <v>4.2333333333332996</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -8888,7 +9016,7 @@
         <v>6</v>
       </c>
       <c r="B388">
-        <v>39.649999999998997</v>
+        <v>12.1999999999989</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -8896,7 +9024,7 @@
         <v>6</v>
       </c>
       <c r="B389">
-        <v>54.083333333332</v>
+        <v>18.599999999999</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -8904,7 +9032,7 @@
         <v>6</v>
       </c>
       <c r="B390">
-        <v>52.466666666664999</v>
+        <v>20.199999999999001</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -8912,7 +9040,7 @@
         <v>6</v>
       </c>
       <c r="B391">
-        <v>79.783333333330006</v>
+        <v>4.2333333333330003</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -8920,7 +9048,7 @@
         <v>6</v>
       </c>
       <c r="B392">
-        <v>26.683333333333</v>
+        <v>5.6666666666659999</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -8928,7 +9056,7 @@
         <v>6</v>
       </c>
       <c r="B393">
-        <v>31.483333333333</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -8936,7 +9064,7 @@
         <v>6</v>
       </c>
       <c r="B394">
-        <v>79.666666666663005</v>
+        <v>16.999999999999002</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -8944,7 +9072,7 @@
         <v>6</v>
       </c>
       <c r="B395">
-        <v>33.349999999999</v>
+        <v>12.199999999998999</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -8952,7 +9080,7 @@
         <v>6</v>
       </c>
       <c r="B396">
-        <v>25.233333333333</v>
+        <v>7.3999999999990003</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -8960,7 +9088,7 @@
         <v>6</v>
       </c>
       <c r="B397">
-        <v>47.699999999999001</v>
+        <v>15.416666666666</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -8968,7 +9096,7 @@
         <v>6</v>
       </c>
       <c r="B398">
-        <v>55.683333333330999</v>
+        <v>26.633333333330999</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -8976,7 +9104,7 @@
         <v>6</v>
       </c>
       <c r="B399">
-        <v>29.916666666666</v>
+        <v>15.249999999999</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -8984,7 +9112,7 @@
         <v>6</v>
       </c>
       <c r="B400">
-        <v>76.399999999996993</v>
+        <v>31.416666666664899</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -8992,7 +9120,7 @@
         <v>6</v>
       </c>
       <c r="B401">
-        <v>31.549999999998999</v>
+        <v>7.2499999999989901</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -9000,7 +9128,7 @@
         <v>6</v>
       </c>
       <c r="B402">
-        <v>21.983333333333</v>
+        <v>8.9999999999989999</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -9008,7 +9136,7 @@
         <v>6</v>
       </c>
       <c r="B403">
-        <v>47.583333333332</v>
+        <v>23.283333333331999</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -9016,7 +9144,7 @@
         <v>6</v>
       </c>
       <c r="B404">
-        <v>41.066666666666002</v>
+        <v>12.083333333333</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -9024,7 +9152,7 @@
         <v>6</v>
       </c>
       <c r="B405">
-        <v>50.799999999998001</v>
+        <v>18.616666666664901</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -9032,7 +9160,7 @@
         <v>6</v>
       </c>
       <c r="B406">
-        <v>68.349999999996996</v>
+        <v>15.399999999998901</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -9040,7 +9168,7 @@
         <v>6</v>
       </c>
       <c r="B407">
-        <v>18.883333333334001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -9048,7 +9176,7 @@
         <v>6</v>
       </c>
       <c r="B408">
-        <v>23.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -9056,7 +9184,7 @@
         <v>6</v>
       </c>
       <c r="B409">
-        <v>31.716666666666001</v>
+        <v>10.616666666665999</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -9064,7 +9192,7 @@
         <v>6</v>
       </c>
       <c r="B410">
-        <v>31.566666666665999</v>
+        <v>13.666666666666</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -9072,7 +9200,7 @@
         <v>6</v>
       </c>
       <c r="B411">
-        <v>39.716666666666001</v>
+        <v>21.833333333332</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -9080,7 +9208,7 @@
         <v>6</v>
       </c>
       <c r="B412">
-        <v>84.399999999995998</v>
+        <v>55.433333333329998</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -9088,7 +9216,7 @@
         <v>6</v>
       </c>
       <c r="B413">
-        <v>44.316666666665</v>
+        <v>12.083333333332</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -9096,7 +9224,7 @@
         <v>6</v>
       </c>
       <c r="B414">
-        <v>39.666666666666003</v>
+        <v>12.216666666666001</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -9104,7 +9232,7 @@
         <v>6</v>
       </c>
       <c r="B415">
-        <v>23.616666666667001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -9112,7 +9240,7 @@
         <v>6</v>
       </c>
       <c r="B416">
-        <v>42.766666666665998</v>
+        <v>5.8166666666669897</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -9120,7 +9248,7 @@
         <v>6</v>
       </c>
       <c r="B417">
-        <v>18.716666666666999</v>
+        <v>8.8833333333335993</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -9128,7 +9256,7 @@
         <v>6</v>
       </c>
       <c r="B418">
-        <v>42.849999999999</v>
+        <v>13.8333333333329</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -9136,7 +9264,7 @@
         <v>6</v>
       </c>
       <c r="B419">
-        <v>47.699999999999001</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -9144,7 +9272,7 @@
         <v>6</v>
       </c>
       <c r="B420">
-        <v>41.249999999998998</v>
+        <v>16.999999999998899</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -9152,7 +9280,7 @@
         <v>6</v>
       </c>
       <c r="B421">
-        <v>39.749999999998998</v>
+        <v>10.616666666665999</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -9160,7 +9288,7 @@
         <v>6</v>
       </c>
       <c r="B422">
-        <v>38.083333333332</v>
+        <v>15.416666666665</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -9168,7 +9296,7 @@
         <v>6</v>
       </c>
       <c r="B423">
-        <v>36.516666666665998</v>
+        <v>10.616666666665999</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -9176,7 +9304,7 @@
         <v>6</v>
       </c>
       <c r="B424">
-        <v>36.466666666666001</v>
+        <v>17.016666666666001</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -9184,7 +9312,7 @@
         <v>6</v>
       </c>
       <c r="B425">
-        <v>26.833333333333002</v>
+        <v>10.599999999999</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -9192,7 +9320,7 @@
         <v>6</v>
       </c>
       <c r="B426">
-        <v>20.333333333333002</v>
+        <v>4.0499999999989997</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -9200,7 +9328,7 @@
         <v>6</v>
       </c>
       <c r="B427">
-        <v>29.933333333333</v>
+        <v>5.6666666666659999</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -9208,7 +9336,7 @@
         <v>6</v>
       </c>
       <c r="B428">
-        <v>37.999999999998998</v>
+        <v>10.599999999999</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -9216,7 +9344,7 @@
         <v>6</v>
       </c>
       <c r="B429">
-        <v>47.699999999999001</v>
+        <v>7.3999999999999897</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -9224,7 +9352,7 @@
         <v>6</v>
       </c>
       <c r="B430">
-        <v>46.116666666664997</v>
+        <v>12.216666666666001</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -9232,7 +9360,7 @@
         <v>6</v>
       </c>
       <c r="B431">
-        <v>36.416666666666003</v>
+        <v>15.399999999999</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -9704,7 +9832,7 @@
         <v>8</v>
       </c>
       <c r="B490">
-        <v>21.5</v>
+        <v>9.2833333333329993</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -9712,7 +9840,7 @@
         <v>8</v>
       </c>
       <c r="B491">
-        <v>11.233333333333</v>
+        <v>5.5666666666662996</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -9720,7 +9848,7 @@
         <v>8</v>
       </c>
       <c r="B492">
-        <v>15.833333333334</v>
+        <v>9.2666666666673994</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -9728,7 +9856,7 @@
         <v>8</v>
       </c>
       <c r="B493">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -9736,7 +9864,7 @@
         <v>8</v>
       </c>
       <c r="B494">
-        <v>4.4833333333332996</v>
+        <v>2.94999999999999</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -9744,7 +9872,7 @@
         <v>8</v>
       </c>
       <c r="B495">
-        <v>3.8</v>
+        <v>2.2666666666666999</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -9752,7 +9880,7 @@
         <v>8</v>
       </c>
       <c r="B496">
-        <v>27.383333333332999</v>
+        <v>20.783333333332902</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -9760,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="B497">
-        <v>12.466666666667001</v>
+        <v>5.9500000000003999</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -9768,7 +9896,7 @@
         <v>8</v>
       </c>
       <c r="B498">
-        <v>12.65</v>
+        <v>7.8666666666667</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -9776,7 +9904,7 @@
         <v>8</v>
       </c>
       <c r="B499">
-        <v>40.683333333332001</v>
+        <v>9.3166666666660003</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -9784,7 +9912,7 @@
         <v>8</v>
       </c>
       <c r="B500">
-        <v>23.116666666667001</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -9792,7 +9920,7 @@
         <v>8</v>
       </c>
       <c r="B501">
-        <v>4.4833333333332996</v>
+        <v>2.9833333333332899</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -9800,7 +9928,7 @@
         <v>8</v>
       </c>
       <c r="B502">
-        <v>29.3</v>
+        <v>12.566666666666</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -9808,7 +9936,7 @@
         <v>8</v>
       </c>
       <c r="B503">
-        <v>19.016666666667</v>
+        <v>4.7166666666669901</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -9816,7 +9944,7 @@
         <v>8</v>
       </c>
       <c r="B504">
-        <v>14.55</v>
+        <v>6.3333333333333002</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -9824,7 +9952,7 @@
         <v>8</v>
       </c>
       <c r="B505">
-        <v>4.4333333333332998</v>
+        <v>2.9333333333332998</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -9832,7 +9960,7 @@
         <v>8</v>
       </c>
       <c r="B506">
-        <v>17.333333333334</v>
+        <v>10.733333333334</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -9840,7 +9968,7 @@
         <v>8</v>
       </c>
       <c r="B507">
-        <v>20.333333333333002</v>
+        <v>15.566666666666301</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -9848,7 +9976,7 @@
         <v>8</v>
       </c>
       <c r="B508">
-        <v>11.183333333333</v>
+        <v>2.9499999999996902</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -9856,7 +9984,7 @@
         <v>8</v>
       </c>
       <c r="B509">
-        <v>8.5833333333333002</v>
+        <v>2.9833333333333001</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -9864,7 +9992,7 @@
         <v>8</v>
       </c>
       <c r="B510">
-        <v>5.25</v>
+        <v>2.1833333333332998</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -9872,7 +10000,7 @@
         <v>8</v>
       </c>
       <c r="B511">
-        <v>22.4</v>
+        <v>7.0999999999999899</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -9880,7 +10008,7 @@
         <v>8</v>
       </c>
       <c r="B512">
-        <v>9.7166666666667005</v>
+        <v>5.5666666666667002</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -9888,7 +10016,7 @@
         <v>8</v>
       </c>
       <c r="B513">
-        <v>21.866666666667001</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -9896,7 +10024,7 @@
         <v>8</v>
       </c>
       <c r="B514">
-        <v>54.066666666665</v>
+        <v>34.716666666664999</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -9904,7 +10032,7 @@
         <v>8</v>
       </c>
       <c r="B515">
-        <v>17.533333333333999</v>
+        <v>7.8666666666672898</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -9912,7 +10040,7 @@
         <v>8</v>
       </c>
       <c r="B516">
-        <v>20.516666666667</v>
+        <v>7.7999999999999901</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -9920,7 +10048,7 @@
         <v>8</v>
       </c>
       <c r="B517">
-        <v>22.616666666667001</v>
+        <v>15.533333333333699</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -9928,7 +10056,7 @@
         <v>8</v>
       </c>
       <c r="B518">
-        <v>10.766666666667</v>
+        <v>9.2666666666669997</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -9936,7 +10064,7 @@
         <v>8</v>
       </c>
       <c r="B519">
-        <v>10.766666666667</v>
+        <v>9.2500000000003002</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -9944,7 +10072,7 @@
         <v>8</v>
       </c>
       <c r="B520">
-        <v>6.1833333333332998</v>
+        <v>4.6666666666666003</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -9952,7 +10080,7 @@
         <v>8</v>
       </c>
       <c r="B521">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -9960,7 +10088,7 @@
         <v>8</v>
       </c>
       <c r="B522">
-        <v>4.4833333333332996</v>
+        <v>2.94999999999999</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -9968,7 +10096,7 @@
         <v>8</v>
       </c>
       <c r="B523">
-        <v>3.75</v>
+        <v>2.2333333333333001</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -9976,7 +10104,7 @@
         <v>8</v>
       </c>
       <c r="B524">
-        <v>7.7166666666666002</v>
+        <v>2.9333333333332998</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -9984,7 +10112,7 @@
         <v>8</v>
       </c>
       <c r="B525">
-        <v>5.6333333333333</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -9992,7 +10120,7 @@
         <v>8</v>
       </c>
       <c r="B526">
-        <v>33.433333333333003</v>
+        <v>23.699999999999601</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -10000,7 +10128,7 @@
         <v>8</v>
       </c>
       <c r="B527">
-        <v>30.783333333333001</v>
+        <v>14.666666666666</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -10008,7 +10136,7 @@
         <v>8</v>
       </c>
       <c r="B528">
-        <v>9.5166666666666995</v>
+        <v>2.9666666666666899</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -10016,7 +10144,7 @@
         <v>8</v>
       </c>
       <c r="B529">
-        <v>10.75</v>
+        <v>5.9666666666666996</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -10024,7 +10152,7 @@
         <v>8</v>
       </c>
       <c r="B530">
-        <v>21.516666666667</v>
+        <v>17.366666666667001</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -10032,7 +10160,7 @@
         <v>8</v>
       </c>
       <c r="B531">
-        <v>28.35</v>
+        <v>12.316666666666</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -10040,7 +10168,7 @@
         <v>8</v>
       </c>
       <c r="B532">
-        <v>19.7</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -10048,7 +10176,7 @@
         <v>8</v>
       </c>
       <c r="B533">
-        <v>16.466666666666999</v>
+        <v>2.13333333333299</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -10056,7 +10184,7 @@
         <v>8</v>
       </c>
       <c r="B534">
-        <v>11.816666666667</v>
+        <v>4.666666666667</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -10064,7 +10192,7 @@
         <v>8</v>
       </c>
       <c r="B535">
-        <v>54.883333333331002</v>
+        <v>36.549999999996999</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -10072,7 +10200,7 @@
         <v>8</v>
       </c>
       <c r="B536">
-        <v>14.2</v>
+        <v>5.9333333333332998</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -10080,7 +10208,7 @@
         <v>8</v>
       </c>
       <c r="B537">
-        <v>17.533333333333999</v>
+        <v>7.8500000000006001</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -10088,7 +10216,7 @@
         <v>9</v>
       </c>
       <c r="B538">
-        <v>46.433333333332001</v>
+        <v>24.933333333332001</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -10096,7 +10224,7 @@
         <v>9</v>
       </c>
       <c r="B539">
-        <v>20.25</v>
+        <v>9.0166666666669997</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -10104,7 +10232,7 @@
         <v>9</v>
       </c>
       <c r="B540">
-        <v>28.866666666665999</v>
+        <v>13.033333333331999</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -10112,7 +10240,7 @@
         <v>9</v>
       </c>
       <c r="B541">
-        <v>26.85</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -10120,7 +10248,7 @@
         <v>9</v>
       </c>
       <c r="B542">
-        <v>12.766666666667</v>
+        <v>8.9666666666669901</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -10128,7 +10256,7 @@
         <v>9</v>
       </c>
       <c r="B543">
-        <v>45.999999999998998</v>
+        <v>18.616666666665999</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -10136,7 +10264,7 @@
         <v>9</v>
       </c>
       <c r="B544">
-        <v>36.599999999999</v>
+        <v>24.133333333331901</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -10144,7 +10272,7 @@
         <v>9</v>
       </c>
       <c r="B545">
-        <v>14.133333333334001</v>
+        <v>-65.649999999995998</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -10152,7 +10280,7 @@
         <v>9</v>
       </c>
       <c r="B546">
-        <v>25.383333333332999</v>
+        <v>12.733333333332901</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -10160,7 +10288,7 @@
         <v>9</v>
       </c>
       <c r="B547">
-        <v>58.183333333330999</v>
+        <v>17.499999999998899</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -10168,7 +10296,7 @@
         <v>9</v>
       </c>
       <c r="B548">
-        <v>34.483333333333</v>
+        <v>11.366666666665999</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -10176,7 +10304,7 @@
         <v>9</v>
       </c>
       <c r="B549">
-        <v>8.5166666666666995</v>
+        <v>4.0333333333333998</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -10184,7 +10312,7 @@
         <v>9</v>
       </c>
       <c r="B550">
-        <v>56.466666666664999</v>
+        <v>27.166666666664899</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -10192,7 +10320,7 @@
         <v>9</v>
       </c>
       <c r="B551">
-        <v>25.033333333333001</v>
+        <v>10.483333333333</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -10200,7 +10328,7 @@
         <v>9</v>
       </c>
       <c r="B552">
-        <v>16.399999999999999</v>
+        <v>11.966666666666599</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -10208,7 +10336,7 @@
         <v>9</v>
       </c>
       <c r="B553">
-        <v>42.216666666666001</v>
+        <v>24.883333333332001</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -10216,7 +10344,7 @@
         <v>9</v>
       </c>
       <c r="B554">
-        <v>15.216666666667001</v>
+        <v>4.0333333333340002</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -10224,7 +10352,7 @@
         <v>9</v>
       </c>
       <c r="B555">
-        <v>16.850000000000001</v>
+        <v>8.2666666666666995</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -10232,7 +10360,7 @@
         <v>9</v>
       </c>
       <c r="B556">
-        <v>9.2833333333334007</v>
+        <v>4.0333333333333998</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -10240,7 +10368,7 @@
         <v>9</v>
       </c>
       <c r="B557">
-        <v>63.283333333331001</v>
+        <v>40.883333333331002</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -10248,7 +10376,7 @@
         <v>9</v>
       </c>
       <c r="B558">
-        <v>18.683333333334001</v>
+        <v>8.9666666666672992</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -10256,7 +10384,7 @@
         <v>9</v>
       </c>
       <c r="B559">
-        <v>37.949999999999001</v>
+        <v>16.083333333332</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -10264,7 +10392,7 @@
         <v>9</v>
       </c>
       <c r="B560">
-        <v>83.699999999997004</v>
+        <v>29.633333333332001</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -10272,7 +10400,7 @@
         <v>9</v>
       </c>
       <c r="B561">
-        <v>47.266666666665003</v>
+        <v>29.733333333331</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -10280,7 +10408,7 @@
         <v>9</v>
       </c>
       <c r="B562">
-        <v>45.483333333331998</v>
+        <v>24.966666666664999</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -10288,7 +10416,7 @@
         <v>9</v>
       </c>
       <c r="B563">
-        <v>37.933333333332001</v>
+        <v>15.316666666665</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -10296,7 +10424,7 @@
         <v>9</v>
       </c>
       <c r="B564">
-        <v>17.899999999999999</v>
+        <v>7.13333333333299</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -10304,7 +10432,7 @@
         <v>9</v>
       </c>
       <c r="B565">
-        <v>10.3</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -10312,7 +10440,7 @@
         <v>9</v>
       </c>
       <c r="B566">
-        <v>23.85</v>
+        <v>16.1333333333334</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -10320,7 +10448,7 @@
         <v>9</v>
       </c>
       <c r="B567">
-        <v>40.499999999998998</v>
+        <v>9.71666666666599</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -10328,7 +10456,7 @@
         <v>9</v>
       </c>
       <c r="B568">
-        <v>23.35</v>
+        <v>13.8333333333333</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -10336,7 +10464,7 @@
         <v>9</v>
       </c>
       <c r="B569">
-        <v>14.116666666666999</v>
+        <v>3.36666666666699</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -10344,7 +10472,7 @@
         <v>9</v>
       </c>
       <c r="B570">
-        <v>35.983333333333</v>
+        <v>14.466666666666001</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -10352,7 +10480,7 @@
         <v>9</v>
       </c>
       <c r="B571">
-        <v>47.766666666665003</v>
+        <v>19.416666666665002</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -10360,7 +10488,7 @@
         <v>9</v>
       </c>
       <c r="B572">
-        <v>42.899999999998997</v>
+        <v>23.199999999998902</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -10368,7 +10496,7 @@
         <v>9</v>
       </c>
       <c r="B573">
-        <v>18.3</v>
+        <v>1.833333333333</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -10376,7 +10504,7 @@
         <v>9</v>
       </c>
       <c r="B574">
-        <v>20.833333333333002</v>
+        <v>9.0166666666659996</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -10384,7 +10512,7 @@
         <v>9</v>
       </c>
       <c r="B575">
-        <v>70.149999999996993</v>
+        <v>15.2666666666659</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -10392,7 +10520,7 @@
         <v>9</v>
       </c>
       <c r="B576">
-        <v>25.616666666665999</v>
+        <v>11.416666666666</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -10400,7 +10528,7 @@
         <v>9</v>
       </c>
       <c r="B577">
-        <v>27.983333333333</v>
+        <v>10.449999999998999</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -10952,7 +11080,7 @@
         <v>11</v>
       </c>
       <c r="B646">
-        <v>11.4</v>
+        <v>7.3333333333333002</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -10960,7 +11088,7 @@
         <v>11</v>
       </c>
       <c r="B647">
-        <v>38.599999999999</v>
+        <v>28.116666666665999</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -10968,7 +11096,7 @@
         <v>11</v>
       </c>
       <c r="B648">
-        <v>32.183333333333003</v>
+        <v>28.083333333333002</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -10976,7 +11104,7 @@
         <v>11</v>
       </c>
       <c r="B649">
-        <v>14.616666666666999</v>
+        <v>7.3166666666669897</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -10984,7 +11112,7 @@
         <v>11</v>
       </c>
       <c r="B650">
-        <v>9.8000000000001002</v>
+        <v>7.3000000000001002</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -10992,7 +11120,7 @@
         <v>11</v>
       </c>
       <c r="B651">
-        <v>5.05</v>
+        <v>2.5166666666666999</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -11000,7 +11128,7 @@
         <v>11</v>
       </c>
       <c r="B652">
-        <v>5</v>
+        <v>2.4833333333333001</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -11008,7 +11136,7 @@
         <v>11</v>
       </c>
       <c r="B653">
-        <v>5.0166666666667004</v>
+        <v>2.4833333333334</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -11016,7 +11144,7 @@
         <v>11</v>
       </c>
       <c r="B654">
-        <v>8.25</v>
+        <v>5.7166666666666996</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -11024,7 +11152,7 @@
         <v>11</v>
       </c>
       <c r="B655">
-        <v>5.0333333333333004</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -11032,7 +11160,7 @@
         <v>11</v>
       </c>
       <c r="B656">
-        <v>5</v>
+        <v>2.4833333333333001</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -11040,7 +11168,7 @@
         <v>11</v>
       </c>
       <c r="B657">
-        <v>9.8333333333333997</v>
+        <v>7.3000000000001002</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -11048,7 +11176,7 @@
         <v>11</v>
       </c>
       <c r="B658">
-        <v>5.0666666666667002</v>
+        <v>2.5333333333333998</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -11056,7 +11184,7 @@
         <v>11</v>
       </c>
       <c r="B659">
-        <v>35.383333333332999</v>
+        <v>23.316666666665999</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -11064,7 +11192,7 @@
         <v>11</v>
       </c>
       <c r="B660">
-        <v>21.033333333333001</v>
+        <v>8.9333333333329996</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -11072,7 +11200,7 @@
         <v>11</v>
       </c>
       <c r="B661">
-        <v>14.633333333334001</v>
+        <v>12.1166666666673</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -11080,7 +11208,7 @@
         <v>11</v>
       </c>
       <c r="B662">
-        <v>35.366666666665999</v>
+        <v>28.0833333333327</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -11088,7 +11216,7 @@
         <v>11</v>
       </c>
       <c r="B663">
-        <v>53.016666666665003</v>
+        <v>39.299999999998001</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -11096,7 +11224,7 @@
         <v>11</v>
       </c>
       <c r="B664">
-        <v>51.366666666664997</v>
+        <v>23.2833333333319</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -11104,7 +11232,7 @@
         <v>11</v>
       </c>
       <c r="B665">
-        <v>27.383333333332999</v>
+        <v>8.9166666666659999</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -11112,7 +11240,7 @@
         <v>11</v>
       </c>
       <c r="B666">
-        <v>59.366666666664997</v>
+        <v>47.283333333331001</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -11120,7 +11248,7 @@
         <v>11</v>
       </c>
       <c r="B667">
-        <v>9.7666666666666995</v>
+        <v>2.5000000000000902</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -11128,7 +11256,7 @@
         <v>11</v>
       </c>
       <c r="B668">
-        <v>91.383333333329006</v>
+        <v>61.716666666663002</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -11136,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="B669">
-        <v>59.399999999998002</v>
+        <v>52.116666666664699</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -11144,7 +11272,7 @@
         <v>11</v>
       </c>
       <c r="B670">
-        <v>40.199999999999001</v>
+        <v>31.333333333332298</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
@@ -11152,7 +11280,7 @@
         <v>11</v>
       </c>
       <c r="B671">
-        <v>30.6</v>
+        <v>23.3333333333334</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -11160,7 +11288,7 @@
         <v>11</v>
       </c>
       <c r="B672">
-        <v>24.233333333333</v>
+        <v>16.916666666666401</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -11168,7 +11296,7 @@
         <v>11</v>
       </c>
       <c r="B673">
-        <v>30.65</v>
+        <v>16.9333333333329</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -11176,7 +11304,7 @@
         <v>11</v>
       </c>
       <c r="B674">
-        <v>17.816666666667</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -11184,7 +11312,7 @@
         <v>11</v>
       </c>
       <c r="B675">
-        <v>6.65</v>
+        <v>4.1333333333333</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -11192,7 +11320,7 @@
         <v>11</v>
       </c>
       <c r="B676">
-        <v>38.616666666665999</v>
+        <v>32.916666666665897</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -11200,7 +11328,7 @@
         <v>11</v>
       </c>
       <c r="B677">
-        <v>17.816666666667</v>
+        <v>8.916666666667</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -11208,7 +11336,7 @@
         <v>11</v>
       </c>
       <c r="B678">
-        <v>25.783333333333001</v>
+        <v>20.083333333333002</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -11216,7 +11344,7 @@
         <v>11</v>
       </c>
       <c r="B679">
-        <v>13</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -11224,7 +11352,7 @@
         <v>11</v>
       </c>
       <c r="B680">
-        <v>41.799999999999002</v>
+        <v>34.499999999998998</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -11232,7 +11360,7 @@
         <v>11</v>
       </c>
       <c r="B681">
-        <v>22.6</v>
+        <v>15.3333333333334</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -11240,7 +11368,7 @@
         <v>11</v>
       </c>
       <c r="B682">
-        <v>16.183333333334001</v>
+        <v>8.9166666666673997</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -11248,7 +11376,7 @@
         <v>11</v>
       </c>
       <c r="B683">
-        <v>17.766666666667</v>
+        <v>10.5000000000004</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -11256,7 +11384,7 @@
         <v>11</v>
       </c>
       <c r="B684">
-        <v>51.399999999998002</v>
+        <v>39.283333333331001</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -11264,7 +11392,7 @@
         <v>11</v>
       </c>
       <c r="B685">
-        <v>9.7833333333334007</v>
+        <v>2.4833333333334</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -11272,7 +11400,7 @@
         <v>11</v>
       </c>
       <c r="B686">
-        <v>43.416666666665002</v>
+        <v>36.116666666664997</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -11280,7 +11408,7 @@
         <v>11</v>
       </c>
       <c r="B687">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -11288,7 +11416,7 @@
         <v>11</v>
       </c>
       <c r="B688">
-        <v>9.7833333333334007</v>
+        <v>2.4833333333334</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -11296,7 +11424,7 @@
         <v>11</v>
       </c>
       <c r="B689">
-        <v>9.8166666666667002</v>
+        <v>4.1166666666667</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -11304,7 +11432,7 @@
         <v>11</v>
       </c>
       <c r="B690">
-        <v>6.6</v>
+        <v>2.4833333333332899</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -11312,7 +11440,7 @@
         <v>11</v>
       </c>
       <c r="B691">
-        <v>13.016666666667</v>
+        <v>5.7000000000003999</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -11320,7 +11448,7 @@
         <v>11</v>
       </c>
       <c r="B692">
-        <v>16.216666666666999</v>
+        <v>5.6999999999999904</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -11328,7 +11456,7 @@
         <v>11</v>
       </c>
       <c r="B693">
-        <v>38.649999999998997</v>
+        <v>29.733333333332201</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -11336,7 +11464,7 @@
         <v>11</v>
       </c>
       <c r="B694">
-        <v>22.583333333333002</v>
+        <v>16.883333333332999</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
@@ -11344,7 +11472,7 @@
         <v>11</v>
       </c>
       <c r="B695">
-        <v>11.416666666667</v>
+        <v>7.3166666666670004</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -11352,7 +11480,7 @@
         <v>11</v>
       </c>
       <c r="B696">
-        <v>16.25</v>
+        <v>10.533333333333299</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -11360,7 +11488,7 @@
         <v>11</v>
       </c>
       <c r="B697">
-        <v>10.35</v>
+        <v>5.6999999999999904</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -11368,7 +11496,7 @@
         <v>11</v>
       </c>
       <c r="B698">
-        <v>13.05</v>
+        <v>5.7166666666666996</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -11376,7 +11504,7 @@
         <v>11</v>
       </c>
       <c r="B699">
-        <v>8.2666666666666995</v>
+        <v>4.1333333333333897</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -11384,7 +11512,7 @@
         <v>11</v>
       </c>
       <c r="B700">
-        <v>24.166666666666998</v>
+        <v>21.700000000000198</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
@@ -11392,7 +11520,7 @@
         <v>11</v>
       </c>
       <c r="B701">
-        <v>13</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -11400,7 +11528,7 @@
         <v>11</v>
       </c>
       <c r="B702">
-        <v>22.6</v>
+        <v>16.883333333333301</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -11408,7 +11536,7 @@
         <v>11</v>
       </c>
       <c r="B703">
-        <v>17.783333333333999</v>
+        <v>10.516666666667399</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -11416,7 +11544,7 @@
         <v>11</v>
       </c>
       <c r="B704">
-        <v>22.633333333332999</v>
+        <v>13.733333333332901</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -11424,7 +11552,7 @@
         <v>12</v>
       </c>
       <c r="B705">
-        <v>41.083333333332</v>
+        <v>29.683333333332001</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -11432,7 +11560,7 @@
         <v>12</v>
       </c>
       <c r="B706">
-        <v>65.133333333330995</v>
+        <v>26.5333333333319</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
@@ -11440,7 +11568,7 @@
         <v>12</v>
       </c>
       <c r="B707">
-        <v>68.283333333331001</v>
+        <v>36.099999999997998</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -11448,7 +11576,7 @@
         <v>12</v>
       </c>
       <c r="B708">
-        <v>60.316666666665</v>
+        <v>45.699999999997999</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -11456,7 +11584,7 @@
         <v>12</v>
       </c>
       <c r="B709">
-        <v>7.55</v>
+        <v>2.4833333333332899</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
@@ -11464,7 +11592,7 @@
         <v>12</v>
       </c>
       <c r="B710">
-        <v>28.333333333333002</v>
+        <v>13.699999999998999</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -11472,7 +11600,7 @@
         <v>12</v>
       </c>
       <c r="B711">
-        <v>92.266666666662999</v>
+        <v>56.899999999997</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -11480,7 +11608,7 @@
         <v>12</v>
       </c>
       <c r="B712">
-        <v>68.299999999996999</v>
+        <v>8.9333333333319995</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
@@ -11488,7 +11616,7 @@
         <v>12</v>
       </c>
       <c r="B713">
-        <v>36.249999999998998</v>
+        <v>26.483333333332201</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
@@ -11496,7 +11624,7 @@
         <v>12</v>
       </c>
       <c r="B714">
-        <v>285.91666666674001</v>
+        <v>194.53333333341101</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
@@ -11504,7 +11632,7 @@
         <v>12</v>
       </c>
       <c r="B715">
-        <v>117.89999999999</v>
+        <v>58.499999999991999</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
@@ -11512,7 +11640,7 @@
         <v>12</v>
       </c>
       <c r="B716">
-        <v>77.933333333329998</v>
+        <v>37.733333333330997</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -11520,7 +11648,7 @@
         <v>12</v>
       </c>
       <c r="B717">
-        <v>97.099999999996001</v>
+        <v>66.499999999995893</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -11528,7 +11656,7 @@
         <v>12</v>
       </c>
       <c r="B718">
-        <v>25.15</v>
+        <v>7.3333333333329902</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -11536,7 +11664,7 @@
         <v>12</v>
       </c>
       <c r="B719">
-        <v>15.583333333334</v>
+        <v>8.9333333333339997</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -11544,7 +11672,7 @@
         <v>12</v>
       </c>
       <c r="B720">
-        <v>68.349999999996996</v>
+        <v>29.733333333330901</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -11552,7 +11680,7 @@
         <v>12</v>
       </c>
       <c r="B721">
-        <v>98.699999999995995</v>
+        <v>80.883333333328906</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -11560,7 +11688,7 @@
         <v>12</v>
       </c>
       <c r="B722">
-        <v>55.499999999998003</v>
+        <v>29.716666666664999</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -11568,7 +11696,7 @@
         <v>12</v>
       </c>
       <c r="B723">
-        <v>33.133333333332999</v>
+        <v>20.133333333332999</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -11576,7 +11704,7 @@
         <v>12</v>
       </c>
       <c r="B724">
-        <v>108.33333333333</v>
+        <v>66.533333333331001</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -11584,7 +11712,7 @@
         <v>12</v>
       </c>
       <c r="B725">
-        <v>69.916666666664</v>
+        <v>47.316666666663998</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -11592,7 +11720,7 @@
         <v>12</v>
       </c>
       <c r="B726">
-        <v>26.7</v>
+        <v>10.5166666666659</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
@@ -11600,7 +11728,7 @@
         <v>12</v>
       </c>
       <c r="B727">
-        <v>68.299999999996999</v>
+        <v>50.533333333329999</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
@@ -11608,7 +11736,7 @@
         <v>12</v>
       </c>
       <c r="B728">
-        <v>37.899999999998997</v>
+        <v>28.116666666665498</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
@@ -11616,7 +11744,7 @@
         <v>12</v>
       </c>
       <c r="B729">
-        <v>84.266666666662999</v>
+        <v>74.483333333329597</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
@@ -11624,7 +11752,7 @@
         <v>12</v>
       </c>
       <c r="B730">
-        <v>18.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
@@ -11632,7 +11760,7 @@
         <v>12</v>
       </c>
       <c r="B731">
-        <v>34.749999999998998</v>
+        <v>18.533333333331999</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -11640,7 +11768,7 @@
         <v>12</v>
       </c>
       <c r="B732">
-        <v>124.36666666666</v>
+        <v>85.716666666660998</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -11648,7 +11776,7 @@
         <v>12</v>
       </c>
       <c r="B733">
-        <v>90.666666666663005</v>
+        <v>68.083333333330003</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
@@ -11656,7 +11784,7 @@
         <v>12</v>
       </c>
       <c r="B734">
-        <v>55.516666666665003</v>
+        <v>44.099999999997998</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -11664,7 +11792,7 @@
         <v>12</v>
       </c>
       <c r="B735">
-        <v>43.366666666664997</v>
+        <v>33.016666666664896</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -11672,7 +11800,7 @@
         <v>12</v>
       </c>
       <c r="B736">
-        <v>18.783333333333999</v>
+        <v>10.5166666666673</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
@@ -11680,7 +11808,7 @@
         <v>12</v>
       </c>
       <c r="B737">
-        <v>28.266666666666001</v>
+        <v>4.0999999999989996</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -11688,7 +11816,7 @@
         <v>12</v>
       </c>
       <c r="B738">
-        <v>55.483333333330997</v>
+        <v>42.483333333330997</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -11696,7 +11824,7 @@
         <v>12</v>
       </c>
       <c r="B739">
-        <v>129.08333333332999</v>
+        <v>106.48333333332999</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
@@ -11704,7 +11832,7 @@
         <v>12</v>
       </c>
       <c r="B740">
-        <v>44.299999999999002</v>
+        <v>26.516666666664999</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -11712,7 +11840,7 @@
         <v>12</v>
       </c>
       <c r="B741">
-        <v>108.35</v>
+        <v>85.716666666666995</v>
       </c>
     </row>
     <row r="854" spans="6:6" x14ac:dyDescent="0.2">
